--- a/sequences/05_localizer.xlsx
+++ b/sequences/05_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
     <t>flower</t>
   </si>
   <si>
+    <t>face/face009.png</t>
+  </si>
+  <si>
+    <t>car/car002.png</t>
+  </si>
+  <si>
+    <t>dog/dog011.png</t>
+  </si>
+  <si>
+    <t>dog/dog006.png</t>
+  </si>
+  <si>
+    <t>flower/flower005.png</t>
+  </si>
+  <si>
+    <t>car/car012.png</t>
+  </si>
+  <si>
+    <t>car/car008.png</t>
+  </si>
+  <si>
+    <t>flower/flower009.png</t>
+  </si>
+  <si>
+    <t>car/car015.png</t>
+  </si>
+  <si>
+    <t>face/face010.png</t>
+  </si>
+  <si>
+    <t>flower/flower003.png</t>
+  </si>
+  <si>
+    <t>flower/flower011.png</t>
+  </si>
+  <si>
+    <t>dog/dog005.png</t>
+  </si>
+  <si>
+    <t>car/car010.png</t>
+  </si>
+  <si>
+    <t>flower/flower013.png</t>
+  </si>
+  <si>
+    <t>flower/flower001.png</t>
+  </si>
+  <si>
+    <t>face/face012.png</t>
+  </si>
+  <si>
+    <t>face/face014.png</t>
+  </si>
+  <si>
+    <t>face/face005.png</t>
+  </si>
+  <si>
+    <t>flower/flower010.png</t>
+  </si>
+  <si>
+    <t>dog/dog015.png</t>
+  </si>
+  <si>
+    <t>dog/dog010.png</t>
+  </si>
+  <si>
+    <t>face/face000.png</t>
+  </si>
+  <si>
+    <t>dog/dog009.png</t>
+  </si>
+  <si>
+    <t>flower/flower008.png</t>
+  </si>
+  <si>
+    <t>flower/flower015.png</t>
+  </si>
+  <si>
+    <t>flower/flower012.png</t>
+  </si>
+  <si>
+    <t>car/car014.png</t>
+  </si>
+  <si>
+    <t>dog/dog012.png</t>
+  </si>
+  <si>
+    <t>face/face015.png</t>
+  </si>
+  <si>
+    <t>flower/flower014.png</t>
+  </si>
+  <si>
+    <t>face/face011.png</t>
+  </si>
+  <si>
+    <t>dog/dog004.png</t>
+  </si>
+  <si>
+    <t>face/face007.png</t>
+  </si>
+  <si>
+    <t>car/car006.png</t>
+  </si>
+  <si>
+    <t>face/face004.png</t>
+  </si>
+  <si>
+    <t>face/face003.png</t>
+  </si>
+  <si>
+    <t>dog/dog014.png</t>
+  </si>
+  <si>
+    <t>car/car000.png</t>
+  </si>
+  <si>
+    <t>dog/dog003.png</t>
+  </si>
+  <si>
+    <t>car/car004.png</t>
+  </si>
+  <si>
+    <t>car/car013.png</t>
+  </si>
+  <si>
+    <t>car/car001.png</t>
+  </si>
+  <si>
+    <t>dog/dog002.png</t>
+  </si>
+  <si>
+    <t>flower/flower000.png</t>
+  </si>
+  <si>
     <t>dog/dog013.png</t>
   </si>
   <si>
+    <t>face/face001.png</t>
+  </si>
+  <si>
+    <t>face/face008.png</t>
+  </si>
+  <si>
+    <t>car/car009.png</t>
+  </si>
+  <si>
+    <t>car/car005.png</t>
+  </si>
+  <si>
+    <t>face/face006.png</t>
+  </si>
+  <si>
+    <t>dog/dog007.png</t>
+  </si>
+  <si>
+    <t>dog/dog008.png</t>
+  </si>
+  <si>
+    <t>dog/dog000.png</t>
+  </si>
+  <si>
+    <t>car/car007.png</t>
+  </si>
+  <si>
+    <t>face/face002.png</t>
+  </si>
+  <si>
+    <t>car/car011.png</t>
+  </si>
+  <si>
+    <t>flower/flower002.png</t>
+  </si>
+  <si>
+    <t>dog/dog001.png</t>
+  </si>
+  <si>
+    <t>flower/flower007.png</t>
+  </si>
+  <si>
+    <t>face/face013.png</t>
+  </si>
+  <si>
+    <t>flower/flower006.png</t>
+  </si>
+  <si>
     <t>car/car003.png</t>
   </si>
   <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
     <t>flower/flower004.png</t>
   </si>
   <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
+    <t>dog/dog020.png</t>
+  </si>
+  <si>
+    <t>flower/flower018.png</t>
+  </si>
+  <si>
+    <t>dog/dog024.png</t>
+  </si>
+  <si>
+    <t>face/face029.png</t>
+  </si>
+  <si>
+    <t>flower/flower024.png</t>
+  </si>
+  <si>
+    <t>face/face016.png</t>
+  </si>
+  <si>
+    <t>car/car028.png</t>
+  </si>
+  <si>
+    <t>face/face017.png</t>
+  </si>
+  <si>
+    <t>dog/dog026.png</t>
+  </si>
+  <si>
+    <t>flower/flower030.png</t>
+  </si>
+  <si>
+    <t>face/face023.png</t>
   </si>
   <si>
     <t>flower/flower027.png</t>
   </si>
   <si>
+    <t>flower/flower021.png</t>
+  </si>
+  <si>
+    <t>car/car030.png</t>
+  </si>
+  <si>
+    <t>dog/dog017.png</t>
+  </si>
+  <si>
+    <t>car/car023.png</t>
+  </si>
+  <si>
+    <t>dog/dog023.png</t>
+  </si>
+  <si>
+    <t>face/face020.png</t>
+  </si>
+  <si>
+    <t>car/car029.png</t>
+  </si>
+  <si>
+    <t>flower/flower029.png</t>
+  </si>
+  <si>
+    <t>dog/dog029.png</t>
+  </si>
+  <si>
+    <t>car/car024.png</t>
+  </si>
+  <si>
+    <t>car/car020.png</t>
+  </si>
+  <si>
+    <t>dog/dog027.png</t>
+  </si>
+  <si>
+    <t>dog/dog019.png</t>
+  </si>
+  <si>
+    <t>face/face019.png</t>
+  </si>
+  <si>
+    <t>face/face028.png</t>
+  </si>
+  <si>
+    <t>car/car019.png</t>
+  </si>
+  <si>
+    <t>dog/dog028.png</t>
+  </si>
+  <si>
+    <t>flower/flower017.png</t>
+  </si>
+  <si>
+    <t>flower/flower019.png</t>
+  </si>
+  <si>
+    <t>flower/flower026.png</t>
+  </si>
+  <si>
+    <t>face/face018.png</t>
+  </si>
+  <si>
+    <t>dog/dog025.png</t>
+  </si>
+  <si>
+    <t>face/face031.png</t>
+  </si>
+  <si>
+    <t>dog/dog022.png</t>
+  </si>
+  <si>
+    <t>dog/dog016.png</t>
+  </si>
+  <si>
+    <t>dog/dog018.png</t>
+  </si>
+  <si>
+    <t>car/car016.png</t>
+  </si>
+  <si>
+    <t>flower/flower025.png</t>
+  </si>
+  <si>
+    <t>car/car017.png</t>
+  </si>
+  <si>
+    <t>car/car022.png</t>
+  </si>
+  <si>
+    <t>flower/flower020.png</t>
+  </si>
+  <si>
+    <t>face/face030.png</t>
+  </si>
+  <si>
+    <t>face/face025.png</t>
+  </si>
+  <si>
+    <t>face/face021.png</t>
+  </si>
+  <si>
+    <t>flower/flower023.png</t>
+  </si>
+  <si>
+    <t>car/car018.png</t>
+  </si>
+  <si>
+    <t>flower/flower016.png</t>
+  </si>
+  <si>
+    <t>flower/flower028.png</t>
+  </si>
+  <si>
+    <t>dog/dog030.png</t>
+  </si>
+  <si>
+    <t>flower/flower031.png</t>
+  </si>
+  <si>
+    <t>car/car026.png</t>
+  </si>
+  <si>
+    <t>face/face027.png</t>
+  </si>
+  <si>
+    <t>car/car025.png</t>
+  </si>
+  <si>
+    <t>car/car027.png</t>
+  </si>
+  <si>
+    <t>car/car021.png</t>
+  </si>
+  <si>
+    <t>face/face022.png</t>
+  </si>
+  <si>
+    <t>face/face026.png</t>
+  </si>
+  <si>
+    <t>dog/dog021.png</t>
+  </si>
+  <si>
+    <t>car/car031.png</t>
+  </si>
+  <si>
+    <t>face/face024.png</t>
+  </si>
+  <si>
+    <t>flower/flower022.png</t>
+  </si>
+  <si>
     <t>dog/dog031.png</t>
   </si>
   <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
+    <t>flower/flower034.png</t>
+  </si>
+  <si>
+    <t>face/face032.png</t>
+  </si>
+  <si>
+    <t>dog/dog046.png</t>
+  </si>
+  <si>
+    <t>dog/dog037.png</t>
+  </si>
+  <si>
+    <t>face/face038.png</t>
+  </si>
+  <si>
+    <t>flower/flower047.png</t>
+  </si>
+  <si>
+    <t>car/car040.png</t>
+  </si>
+  <si>
+    <t>car/car037.png</t>
+  </si>
+  <si>
+    <t>car/car043.png</t>
+  </si>
+  <si>
+    <t>dog/dog039.png</t>
+  </si>
+  <si>
+    <t>face/face036.png</t>
+  </si>
+  <si>
+    <t>dog/dog045.png</t>
+  </si>
+  <si>
+    <t>car/car032.png</t>
+  </si>
+  <si>
+    <t>car/car039.png</t>
+  </si>
+  <si>
+    <t>flower/flower033.png</t>
+  </si>
+  <si>
+    <t>flower/flower042.png</t>
+  </si>
+  <si>
+    <t>flower/flower043.png</t>
+  </si>
+  <si>
+    <t>face/face042.png</t>
+  </si>
+  <si>
+    <t>face/face043.png</t>
+  </si>
+  <si>
+    <t>car/car045.png</t>
+  </si>
+  <si>
+    <t>car/car035.png</t>
+  </si>
+  <si>
+    <t>face/face039.png</t>
+  </si>
+  <si>
+    <t>flower/flower037.png</t>
+  </si>
+  <si>
+    <t>face/face037.png</t>
+  </si>
+  <si>
+    <t>flower/flower041.png</t>
+  </si>
+  <si>
+    <t>flower/flower036.png</t>
+  </si>
+  <si>
+    <t>dog/dog036.png</t>
+  </si>
+  <si>
+    <t>flower/flower039.png</t>
+  </si>
+  <si>
+    <t>dog/dog038.png</t>
+  </si>
+  <si>
+    <t>car/car044.png</t>
+  </si>
+  <si>
+    <t>flower/flower032.png</t>
+  </si>
+  <si>
+    <t>car/car041.png</t>
+  </si>
+  <si>
+    <t>flower/flower044.png</t>
+  </si>
+  <si>
+    <t>face/face041.png</t>
+  </si>
+  <si>
+    <t>car/car033.png</t>
+  </si>
+  <si>
+    <t>face/face045.png</t>
+  </si>
+  <si>
+    <t>car/car038.png</t>
+  </si>
+  <si>
+    <t>dog/dog035.png</t>
+  </si>
+  <si>
+    <t>car/car034.png</t>
+  </si>
+  <si>
+    <t>face/face047.png</t>
+  </si>
+  <si>
+    <t>dog/dog047.png</t>
+  </si>
+  <si>
+    <t>face/face046.png</t>
+  </si>
+  <si>
+    <t>car/car036.png</t>
+  </si>
+  <si>
+    <t>flower/flower038.png</t>
+  </si>
+  <si>
+    <t>dog/dog032.png</t>
+  </si>
+  <si>
+    <t>face/face035.png</t>
+  </si>
+  <si>
+    <t>face/face040.png</t>
+  </si>
+  <si>
+    <t>dog/dog042.png</t>
+  </si>
+  <si>
+    <t>flower/flower035.png</t>
+  </si>
+  <si>
+    <t>flower/flower040.png</t>
+  </si>
+  <si>
+    <t>car/car042.png</t>
+  </si>
+  <si>
+    <t>face/face033.png</t>
+  </si>
+  <si>
+    <t>face/face034.png</t>
+  </si>
+  <si>
+    <t>face/face044.png</t>
+  </si>
+  <si>
+    <t>flower/flower045.png</t>
+  </si>
+  <si>
+    <t>dog/dog033.png</t>
+  </si>
+  <si>
+    <t>dog/dog040.png</t>
+  </si>
+  <si>
+    <t>car/car047.png</t>
+  </si>
+  <si>
+    <t>dog/dog044.png</t>
+  </si>
+  <si>
+    <t>dog/dog034.png</t>
+  </si>
+  <si>
+    <t>dog/dog041.png</t>
+  </si>
+  <si>
+    <t>flower/flower046.png</t>
   </si>
   <si>
     <t>car/car046.png</t>
   </si>
   <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
     <t>dog/dog043.png</t>
   </si>
   <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
+    <t>car/car051.png</t>
+  </si>
+  <si>
+    <t>face/face062.png</t>
+  </si>
+  <si>
+    <t>flower/flower053.png</t>
+  </si>
+  <si>
+    <t>dog/dog058.png</t>
+  </si>
+  <si>
+    <t>flower/flower058.png</t>
   </si>
   <si>
     <t>face/face052.png</t>
   </si>
   <si>
-    <t>face/face062.png</t>
+    <t>flower/flower061.png</t>
+  </si>
+  <si>
+    <t>car/car062.png</t>
+  </si>
+  <si>
+    <t>face/face063.png</t>
+  </si>
+  <si>
+    <t>face/face049.png</t>
+  </si>
+  <si>
+    <t>dog/dog062.png</t>
+  </si>
+  <si>
+    <t>flower/flower056.png</t>
+  </si>
+  <si>
+    <t>car/car053.png</t>
+  </si>
+  <si>
+    <t>car/car060.png</t>
+  </si>
+  <si>
+    <t>dog/dog055.png</t>
+  </si>
+  <si>
+    <t>dog/dog054.png</t>
+  </si>
+  <si>
+    <t>car/car050.png</t>
+  </si>
+  <si>
+    <t>face/face058.png</t>
+  </si>
+  <si>
+    <t>dog/dog052.png</t>
+  </si>
+  <si>
+    <t>dog/dog049.png</t>
+  </si>
+  <si>
+    <t>flower/flower054.png</t>
+  </si>
+  <si>
+    <t>dog/dog063.png</t>
+  </si>
+  <si>
+    <t>dog/dog059.png</t>
+  </si>
+  <si>
+    <t>dog/dog048.png</t>
+  </si>
+  <si>
+    <t>face/face059.png</t>
+  </si>
+  <si>
+    <t>car/car058.png</t>
+  </si>
+  <si>
+    <t>flower/flower048.png</t>
+  </si>
+  <si>
+    <t>car/car049.png</t>
+  </si>
+  <si>
+    <t>dog/dog057.png</t>
+  </si>
+  <si>
+    <t>face/face054.png</t>
+  </si>
+  <si>
+    <t>flower/flower055.png</t>
+  </si>
+  <si>
+    <t>flower/flower050.png</t>
+  </si>
+  <si>
+    <t>face/face060.png</t>
+  </si>
+  <si>
+    <t>car/car056.png</t>
+  </si>
+  <si>
+    <t>face/face061.png</t>
+  </si>
+  <si>
+    <t>car/car063.png</t>
+  </si>
+  <si>
+    <t>dog/dog060.png</t>
+  </si>
+  <si>
+    <t>flower/flower049.png</t>
+  </si>
+  <si>
+    <t>flower/flower062.png</t>
   </si>
   <si>
     <t>flower/flower052.png</t>
   </si>
   <si>
+    <t>dog/dog061.png</t>
+  </si>
+  <si>
+    <t>car/car048.png</t>
+  </si>
+  <si>
+    <t>car/car055.png</t>
+  </si>
+  <si>
+    <t>flower/flower059.png</t>
+  </si>
+  <si>
+    <t>dog/dog050.png</t>
+  </si>
+  <si>
+    <t>face/face057.png</t>
+  </si>
+  <si>
+    <t>face/face053.png</t>
+  </si>
+  <si>
+    <t>face/face050.png</t>
+  </si>
+  <si>
+    <t>flower/flower057.png</t>
+  </si>
+  <si>
+    <t>face/face048.png</t>
+  </si>
+  <si>
+    <t>dog/dog056.png</t>
+  </si>
+  <si>
+    <t>face/face055.png</t>
+  </si>
+  <si>
+    <t>dog/dog053.png</t>
+  </si>
+  <si>
+    <t>car/car057.png</t>
+  </si>
+  <si>
+    <t>dog/dog051.png</t>
+  </si>
+  <si>
+    <t>car/car061.png</t>
+  </si>
+  <si>
+    <t>flower/flower051.png</t>
+  </si>
+  <si>
+    <t>flower/flower060.png</t>
+  </si>
+  <si>
+    <t>car/car059.png</t>
+  </si>
+  <si>
     <t>flower/flower063.png</t>
   </si>
   <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
+    <t>face/face056.png</t>
   </si>
   <si>
     <t>face/face051.png</t>
   </si>
   <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
+    <t>car/car052.png</t>
   </si>
   <si>
     <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.305178472300786</v>
+        <v>1.550090712965061</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1.457412163400876</v>
+        <v>1.542639781026053</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.356404008297551</v>
+        <v>1.502800046648995</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1.620383422134781</v>
+        <v>1.560543670713103</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.430801967184566</v>
+        <v>1.697846616481877</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.622746929798478</v>
+        <v>1.257517438946213</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1.668038226357802</v>
+        <v>1.650462946274879</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.541938602473581</v>
+        <v>1.359468584431515</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.546966684626963</v>
+        <v>1.461718928742759</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.409662972954967</v>
+        <v>1.27151941121914</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.508975014394105</v>
+        <v>1.61804334127703</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1.717465318081101</v>
+        <v>1.741819091034856</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.491552580408805</v>
+        <v>1.395425108486497</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.332616746197371</v>
+        <v>1.351539308298181</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.425181860466435</v>
+        <v>1.442343128457538</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.495598344720252</v>
+        <v>1.638392316155283</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1.349465458819563</v>
+        <v>1.731875704937495</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.508227391574368</v>
+        <v>1.407628173238301</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.635761395551622</v>
+        <v>1.690974419782406</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.447949769620823</v>
+        <v>1.490976088463588</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.420732953959247</v>
+        <v>1.512111328418258</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.419200453456812</v>
+        <v>1.523460803724936</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1.421344848046751</v>
+        <v>1.332685524037511</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.389336845266424</v>
+        <v>1.443776097034138</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1.323064219691492</v>
+        <v>1.663787353813817</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>1.566113730636254</v>
+        <v>1.44238511428634</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.169442754525265</v>
+        <v>1.531881993935627</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.359776816635163</v>
+        <v>1.674956856752329</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.437928589365493</v>
+        <v>1.828023396791476</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.520266966057435</v>
+        <v>1.56787719588612</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.409541695196322</v>
+        <v>1.287683309665289</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.540109798635332</v>
+        <v>1.528745673110701</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.561433920065378</v>
+        <v>1.503017697496556</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.708969524444558</v>
+        <v>1.614325361289104</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.491420740782482</v>
+        <v>1.466576472916336</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1.417380637588086</v>
+        <v>1.546171405504881</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.492133560802192</v>
+        <v>1.39412823174544</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.629773489360014</v>
+        <v>1.36557770999918</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.16122096030305</v>
+        <v>1.251865219888478</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.326387953599307</v>
+        <v>1.347479766885987</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.644154420753823</v>
+        <v>1.125924370234998</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.692714146342453</v>
+        <v>1.548718021022225</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1.41310165920554</v>
+        <v>1.519665881013846</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.491183170445076</v>
+        <v>1.60384508347418</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.440284358909028</v>
+        <v>1.398687181003092</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.337477841662584</v>
+        <v>1.570735121531777</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>1.2491471519293</v>
+        <v>1.588160747110878</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.720904772853668</v>
+        <v>1.498158347172847</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.303400135240845</v>
+        <v>1.136880633419086</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>1.529570870437111</v>
+        <v>1.628505879126699</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>1.253942781825938</v>
+        <v>1.550543390257873</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.732995045356053</v>
+        <v>1.318373153962587</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.427515014532122</v>
+        <v>1.43352695395114</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.621995426145868</v>
+        <v>1.506331835385486</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.430581478239387</v>
+        <v>1.564310902317713</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.745793812195418</v>
+        <v>1.571628013539936</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.499210659182958</v>
+        <v>1.643482711680504</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.617087089145325</v>
+        <v>1.633914346520464</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>1.603332143204642</v>
+        <v>1.699960952998986</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>1.319881832939292</v>
+        <v>1.486092339185345</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.308767203166387</v>
+        <v>1.462980372281354</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.536239131478882</v>
+        <v>1.670551513515617</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.433750301734812</v>
+        <v>1.5776804004006</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.271893107515871</v>
+        <v>1.483374350978848</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.334220350233934</v>
+        <v>1.518149096629628</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>1.360291036461809</v>
+        <v>1.522404666920872</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.509451978329272</v>
+        <v>1.275181436490923</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>1.245099875739463</v>
+        <v>1.374555657416683</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.566570804539973</v>
+        <v>1.227325519208331</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.402282325347789</v>
+        <v>1.63088893369943</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.53092083474787</v>
+        <v>1.550132178668986</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.393563997220504</v>
+        <v>1.418997994411771</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.56242678841774</v>
+        <v>1.620732546215583</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.297921666361938</v>
+        <v>1.419760535309967</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.312926835007174</v>
+        <v>1.59663660902271</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.447530250383152</v>
+        <v>1.55585652859297</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.5630847126538</v>
+        <v>1.403009717119035</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.497307528188892</v>
+        <v>1.699416449684704</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.397165194659974</v>
+        <v>1.605332530173028</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.619759000683672</v>
+        <v>1.402564121066763</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>1.61137198007813</v>
+        <v>1.502011589281174</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.886539993131857</v>
+        <v>1.518698191252096</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.518857889166483</v>
+        <v>1.52490076581655</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.352936263059557</v>
+        <v>1.496830894127629</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>1.458305370772312</v>
+        <v>1.532367953684765</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.476025613151426</v>
+        <v>1.653378001693126</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.523878450647815</v>
+        <v>1.485512934319819</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.552992958301128</v>
+        <v>1.518479668810387</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>1.460519412122027</v>
+        <v>1.17575848593308</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.577028411837676</v>
+        <v>1.542902097630795</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.596089912006449</v>
+        <v>1.626494170847777</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3023,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>1.73306943441046</v>
+        <v>1.580744800706247</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.472227934351533</v>
+        <v>1.462582346856574</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>1.368223300616617</v>
+        <v>1.305577236561807</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.407835424346555</v>
+        <v>1.397905800874926</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.651335612961936</v>
+        <v>1.487005617252278</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.83745148152086</v>
+        <v>1.552158322964794</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>1.712346165762404</v>
+        <v>1.266004708761019</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>1.612086438866811</v>
+        <v>1.588985700133464</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>1.268952805439176</v>
+        <v>1.400620008378384</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.445085617159135</v>
+        <v>1.369257308603326</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.718029971179523</v>
+        <v>1.392490625325885</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3243,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104">
-        <v>1.566579565341588</v>
+        <v>1.37596385197183</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.826968636030425</v>
+        <v>1.580854152149181</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.605430665041158</v>
+        <v>1.344244933157423</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.549517762166013</v>
+        <v>1.749067273041802</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.431807411399346</v>
+        <v>1.388374544688195</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.474778023309389</v>
+        <v>1.47343299483515</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.357148563868771</v>
+        <v>1.28416326648411</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.740319065251015</v>
+        <v>1.586179583314351</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.572313837325054</v>
+        <v>1.787662409729473</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>1.495169566439251</v>
+        <v>1.511412294355709</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114">
-        <v>1.747015858374864</v>
+        <v>1.678337791202244</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.67089342363095</v>
+        <v>1.741330348488596</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.519660631450792</v>
+        <v>1.259390706399955</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.506763195851984</v>
+        <v>1.762337645962834</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.818877628622523</v>
+        <v>1.81740377779655</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.680269132277344</v>
+        <v>1.168537870999403</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.318610747302904</v>
+        <v>1.557039287104159</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.497949034275132</v>
+        <v>1.4444302833742</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.506140872590343</v>
+        <v>1.561342346700234</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.631752109704418</v>
+        <v>1.410154945293898</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124">
-        <v>1.404461578162611</v>
+        <v>1.550548941938317</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.325662011245457</v>
+        <v>1.546953577903519</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.597190759402295</v>
+        <v>1.50200086835038</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>1.354460494874762</v>
+        <v>1.516586721102688</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>1.499963471354411</v>
+        <v>1.486888706758547</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.337262830358611</v>
+        <v>1.325741460570197</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.563303451396035</v>
+        <v>1.247162495975829</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.647636661079261</v>
+        <v>1.434727272656764</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.613590666089838</v>
+        <v>1.513869061345139</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.664098677057774</v>
+        <v>1.141788055608116</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.457849430178952</v>
+        <v>1.56038201714804</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.16697010182562</v>
+        <v>1.666941774706923</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>1.716202072574482</v>
+        <v>1.55138450841419</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.777360706279539</v>
+        <v>1.419126520730544</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138">
-        <v>1.291363857426152</v>
+        <v>1.631201710331993</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139">
-        <v>1.431293369691722</v>
+        <v>1.315793490197981</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.720491313288782</v>
+        <v>1.498375006264553</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.678745753765959</v>
+        <v>1.611565817021521</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.210164471631943</v>
+        <v>1.696295106886843</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.424092482685133</v>
+        <v>1.431232582120191</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.321194786799917</v>
+        <v>1.403627659629384</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.51967389799728</v>
+        <v>1.90568040820818</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.552411453925236</v>
+        <v>1.51140549606315</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>1.624313469856509</v>
+        <v>1.566799939623785</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148">
-        <v>1.47201316681134</v>
+        <v>1.557109307742767</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.482196690128785</v>
+        <v>1.622495746879088</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.696446892968991</v>
+        <v>1.366346390459208</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.056546382173252</v>
+        <v>1.592182663912466</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152">
-        <v>1.305269111247259</v>
+        <v>1.683988752222042</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.67928430110794</v>
+        <v>1.653163372103684</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.477581468508139</v>
+        <v>1.52579603154608</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.371086527127785</v>
+        <v>1.453632891329779</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4283,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156">
-        <v>1.430472782970842</v>
+        <v>1.553990940148087</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.515837257304237</v>
+        <v>1.616985793144611</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>1.561995080550823</v>
+        <v>1.581736961480094</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4343,10 +4343,10 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>1.557617137701759</v>
+        <v>1.461229169807234</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.693969846803207</v>
+        <v>1.625964346185174</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.463561504163149</v>
+        <v>1.650709387457704</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162">
-        <v>1.545459093599746</v>
+        <v>1.520399384934696</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.567055123922546</v>
+        <v>1.378853439123912</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.60281614558649</v>
+        <v>1.563590981380402</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.418431547402041</v>
+        <v>1.393840531878364</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.732214418756618</v>
+        <v>1.593591251538155</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.526188445044506</v>
+        <v>1.403395207889797</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.550812784233445</v>
+        <v>1.183961383902334</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.566012801449667</v>
+        <v>1.6435825936605</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.391215139137461</v>
+        <v>1.470733989029374</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.29877510827426</v>
+        <v>1.424932470481716</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.533814901599896</v>
+        <v>1.504173446821402</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.392101704729072</v>
+        <v>1.641445442381589</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>1.667589743692156</v>
+        <v>1.295552891469218</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175">
-        <v>1.577284403955433</v>
+        <v>1.392804347103044</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>1.481117002855706</v>
+        <v>1.572246558141538</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.62765572508395</v>
+        <v>1.533360874922984</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.408033789210102</v>
+        <v>1.711959113049182</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.538105657658901</v>
+        <v>1.482229018150789</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>1.384218936461948</v>
+        <v>1.706360776347921</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.508417286758396</v>
+        <v>1.237381570803969</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>1.394770841328246</v>
+        <v>1.51996334812169</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.349950424382761</v>
+        <v>1.42145685404041</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.363920765926659</v>
+        <v>1.539971139868079</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.439312679410052</v>
+        <v>1.303069355424177</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.629265718111698</v>
+        <v>1.545206413153203</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.498058895904114</v>
+        <v>1.326523575872379</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.581928080757763</v>
+        <v>1.575662655729343</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.362057425576835</v>
+        <v>1.790097884369569</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.457232427952084</v>
+        <v>1.457714149912914</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.460547113302008</v>
+        <v>1.3576109666283</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192">
-        <v>1.302362797136331</v>
+        <v>1.605499576055705</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.556358299499151</v>
+        <v>1.721637481218261</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>1.528867557176721</v>
+        <v>1.356414906262033</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195">
-        <v>1.673368817884367</v>
+        <v>1.579220918460826</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.63649214636093</v>
+        <v>1.263841384193563</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197">
-        <v>1.774827604789817</v>
+        <v>1.515449807880262</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.632546260713244</v>
+        <v>1.423956107924748</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.634730921784669</v>
+        <v>1.457017771035498</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.408592519850008</v>
+        <v>1.46101045458255</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.201307359147314</v>
+        <v>1.723438098472339</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.31773656872373</v>
+        <v>1.436676313698955</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.306311399176617</v>
+        <v>1.268426440706012</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.420420455217918</v>
+        <v>1.285899964991931</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.590274472444641</v>
+        <v>1.613028750681848</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206">
-        <v>1.481078123222473</v>
+        <v>1.641974103859184</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>1.471208663862783</v>
+        <v>1.143951887778755</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.65265895224492</v>
+        <v>1.417449324022803</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.408684447532182</v>
+        <v>1.353556723370905</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.725289135170069</v>
+        <v>1.663273028366762</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.73029352606726</v>
+        <v>1.728957052185124</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.239005167793853</v>
+        <v>1.413636060411148</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.525488074498873</v>
+        <v>1.623239568404844</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.491285339877747</v>
+        <v>1.504340649671008</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.589946161313449</v>
+        <v>1.755804467421026</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.500620360262678</v>
+        <v>1.753185304771876</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>1</v>
       </c>
       <c r="F217">
-        <v>1.556437354546714</v>
+        <v>1.630108124256552</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.659442654491712</v>
+        <v>1.716070533116107</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.535615343148777</v>
+        <v>1.518154053188337</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.258671157879075</v>
+        <v>1.659376083876188</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.51351930624264</v>
+        <v>1.597315552714214</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.243236974536202</v>
+        <v>1.344095365937168</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.528000042543198</v>
+        <v>1.46393042704984</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F224">
-        <v>1.56435176511366</v>
+        <v>1.450014021511456</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.838045127988776</v>
+        <v>1.570181723562091</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.479233687493569</v>
+        <v>1.441396021131288</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.398071020154713</v>
+        <v>1.19013030477182</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F228">
-        <v>1.711318408096737</v>
+        <v>1.3966209949813</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F229">
-        <v>1.365226685144986</v>
+        <v>1.333770197242665</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.564407287234084</v>
+        <v>1.541146851282385</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>1.590560785561463</v>
+        <v>1.49651467350194</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.254831875427495</v>
+        <v>1.686314907225014</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.570275275126964</v>
+        <v>1.376461683505773</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.593682720420448</v>
+        <v>1.627971393346298</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.298360879410582</v>
+        <v>1.631999807025378</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.550380788130145</v>
+        <v>1.468754405261559</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.75441571203404</v>
+        <v>1.440408762536852</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.564426723571541</v>
+        <v>1.488498027907947</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.716125802304463</v>
+        <v>1.544951656258453</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.472656890263411</v>
+        <v>1.685004820777567</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.50174649572474</v>
+        <v>1.401497229507526</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.527348910915052</v>
+        <v>1.577399858011088</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.499871827064884</v>
+        <v>1.628112953240061</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.495230242823668</v>
+        <v>1.567876756507101</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.421059388601615</v>
+        <v>1.455770354535734</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.54674226391023</v>
+        <v>1.585862061686773</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.493516497932108</v>
+        <v>1.413767652965622</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.469496731510843</v>
+        <v>1.50180822185409</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F249">
-        <v>1.387828135470541</v>
+        <v>1.416536266155799</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6163,10 +6163,10 @@
         <v>3</v>
       </c>
       <c r="E250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F250">
-        <v>1.560733477144763</v>
+        <v>1.697694813597683</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.650073147573428</v>
+        <v>1.459958964057616</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>1.188722316982449</v>
+        <v>1.496511847142985</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F253">
-        <v>1.123031739524365</v>
+        <v>1.380516245270284</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.508108573349777</v>
+        <v>1.614985271850277</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.328031778227044</v>
+        <v>1.546868574340822</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.454118595521896</v>
+        <v>1.379371755065648</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.578504000296337</v>
+        <v>1.408962570789973</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/05_localizer.xlsx
+++ b/sequences/05_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
+    <t>house</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.550090712965061</v>
+        <v>1.697871871338877</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1.542639781026053</v>
+        <v>1.532191970699345</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.502800046648995</v>
+        <v>1.644455876127409</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.560543670713103</v>
+        <v>1.364193465555169</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.697846616481877</v>
+        <v>1.797522552442248</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.257517438946213</v>
+        <v>1.750832541775335</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.650462946274879</v>
+        <v>1.521068848322213</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.359468584431515</v>
+        <v>1.718969963880556</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.461718928742759</v>
+        <v>1.680970356141924</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.27151941121914</v>
+        <v>1.605111078816337</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.61804334127703</v>
+        <v>1.70475556858313</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.741819091034856</v>
+        <v>1.472129572900276</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.395425108486497</v>
+        <v>1.670479827328054</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.351539308298181</v>
+        <v>1.15261742619064</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.442343128457538</v>
+        <v>1.364375724458697</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.638392316155283</v>
+        <v>1.374040442737152</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1.731875704937495</v>
+        <v>1.494957555430219</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.407628173238301</v>
+        <v>1.629121280932663</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.690974419782406</v>
+        <v>1.734784197466739</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.490976088463588</v>
+        <v>1.525690174777325</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.512111328418258</v>
+        <v>1.599411635320717</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.523460803724936</v>
+        <v>1.49122705211073</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.332685524037511</v>
+        <v>1.531153769724001</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.443776097034138</v>
+        <v>1.349251306776364</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>1.663787353813817</v>
+        <v>1.00417158432043</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>1.44238511428634</v>
+        <v>1.431253254696195</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.531881993935627</v>
+        <v>1.430183626006636</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.674956856752329</v>
+        <v>1.474553313282988</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.828023396791476</v>
+        <v>1.415341392217717</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.56787719588612</v>
+        <v>1.673018022712315</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1.287683309665289</v>
+        <v>1.488455666707174</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.528745673110701</v>
+        <v>1.685273870365527</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.503017697496556</v>
+        <v>1.737638494542914</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.614325361289104</v>
+        <v>1.514528355343252</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.466576472916336</v>
+        <v>1.56389637466188</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1.546171405504881</v>
+        <v>1.402722716250451</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.39412823174544</v>
+        <v>1.315778896247301</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.36557770999918</v>
+        <v>1.818598484076437</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.251865219888478</v>
+        <v>1.568689114442148</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.347479766885987</v>
+        <v>1.56415777076876</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.125924370234998</v>
+        <v>1.275328025682513</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.548718021022225</v>
+        <v>1.633703443682146</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>1.519665881013846</v>
+        <v>1.261589846973152</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.60384508347418</v>
+        <v>1.580778631784556</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.398687181003092</v>
+        <v>1.844346594566504</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.570735121531777</v>
+        <v>1.436345487474187</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1.588160747110878</v>
+        <v>1.46674411184175</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.498158347172847</v>
+        <v>1.503737106053288</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>1.136880633419086</v>
+        <v>1.560166409341189</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.628505879126699</v>
+        <v>1.666092548526602</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>1.550543390257873</v>
+        <v>1.532221298944949</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.318373153962587</v>
+        <v>1.646615596493092</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.43352695395114</v>
+        <v>1.591633689104418</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.506331835385486</v>
+        <v>1.718107151278605</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.564310902317713</v>
+        <v>1.431500041055687</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.571628013539936</v>
+        <v>1.350670288037276</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.643482711680504</v>
+        <v>1.585264308375271</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.633914346520464</v>
+        <v>1.411890475913663</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>1.699960952998986</v>
+        <v>1.320475972619784</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.486092339185345</v>
+        <v>1.686518135940877</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.462980372281354</v>
+        <v>1.375276873932372</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.670551513515617</v>
+        <v>1.40604484781659</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.5776804004006</v>
+        <v>1.565385703174458</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.483374350978848</v>
+        <v>1.636830505550421</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.518149096629628</v>
+        <v>1.290764191537903</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>1.522404666920872</v>
+        <v>1.593061464525446</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.275181436490923</v>
+        <v>1.486739287311662</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.374555657416683</v>
+        <v>1.337882388840565</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.227325519208331</v>
+        <v>1.745043804214192</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.63088893369943</v>
+        <v>1.5167880938565</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.550132178668986</v>
+        <v>1.114470270244022</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.418997994411771</v>
+        <v>1.588765611194882</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.620732546215583</v>
+        <v>1.702924163087173</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>1.419760535309967</v>
+        <v>1.463304079013264</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.59663660902271</v>
+        <v>1.604429287362741</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.55585652859297</v>
+        <v>1.418619976575166</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.403009717119035</v>
+        <v>1.265486454353918</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.699416449684704</v>
+        <v>1.49580335450848</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>1.605332530173028</v>
+        <v>1.337315011568676</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.402564121066763</v>
+        <v>1.543035894888547</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.502011589281174</v>
+        <v>1.446199719166939</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2823,10 +2823,10 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>1.518698191252096</v>
+        <v>1.380286534052385</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.52490076581655</v>
+        <v>1.780670457992529</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.496830894127629</v>
+        <v>1.433833650117098</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>1</v>
       </c>
       <c r="F86">
-        <v>1.532367953684765</v>
+        <v>1.524164216672353</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.653378001693126</v>
+        <v>1.76861122572875</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.485512934319819</v>
+        <v>1.604210772502803</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.518479668810387</v>
+        <v>1.314570770829314</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>1.17575848593308</v>
+        <v>1.368227281454251</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.542902097630795</v>
+        <v>1.470574723221725</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.626494170847777</v>
+        <v>1.470936158890549</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3023,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>1.580744800706247</v>
+        <v>1.380089000315542</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.462582346856574</v>
+        <v>1.309788078875605</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.305577236561807</v>
+        <v>1.639284299389807</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.397905800874926</v>
+        <v>1.587280333940042</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.487005617252278</v>
+        <v>1.398851106409187</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.552158322964794</v>
+        <v>1.329033140418556</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.266004708761019</v>
+        <v>1.679259234755438</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>1.588985700133464</v>
+        <v>1.630716101372235</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>1</v>
       </c>
       <c r="F101">
-        <v>1.400620008378384</v>
+        <v>1.387115941923204</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>1.369257308603326</v>
+        <v>1.484424965858358</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.392490625325885</v>
+        <v>1.356435297884349</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3243,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>1.37596385197183</v>
+        <v>1.727745666134665</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.580854152149181</v>
+        <v>1.506324427468711</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.344244933157423</v>
+        <v>1.461231019219868</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.749067273041802</v>
+        <v>1.450040167153654</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.388374544688195</v>
+        <v>1.713199848944687</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.47343299483515</v>
+        <v>1.321857927809009</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.28416326648411</v>
+        <v>1.35629091032666</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3383,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111">
-        <v>1.586179583314351</v>
+        <v>1.721775430133669</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.787662409729473</v>
+        <v>1.15879482216726</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.511412294355709</v>
+        <v>1.676308220833527</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>1.678337791202244</v>
+        <v>1.372142284384573</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.741330348488596</v>
+        <v>1.362470981036713</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.259390706399955</v>
+        <v>1.184211922394053</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.762337645962834</v>
+        <v>1.675357658327068</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.81740377779655</v>
+        <v>1.19375387389246</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.168537870999403</v>
+        <v>1.448466708922262</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.557039287104159</v>
+        <v>1.455072681121949</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.4444302833742</v>
+        <v>1.400338415429314</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.561342346700234</v>
+        <v>1.204737875517158</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.410154945293898</v>
+        <v>1.60296349378107</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>1.550548941938317</v>
+        <v>1.635812909868974</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.546953577903519</v>
+        <v>1.424699723703662</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.50200086835038</v>
+        <v>1.397568412109594</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.516586721102688</v>
+        <v>1.481122386968176</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.486888706758547</v>
+        <v>1.357730215694524</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.325741460570197</v>
+        <v>1.386552001210598</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.247162495975829</v>
+        <v>1.949033238615225</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.434727272656764</v>
+        <v>1.54584163142572</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.513869061345139</v>
+        <v>1.3891644705576</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.141788055608116</v>
+        <v>1.69210841854524</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.56038201714804</v>
+        <v>1.34782727568042</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.666941774706923</v>
+        <v>1.332001340347778</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.55138450841419</v>
+        <v>1.661791585011011</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.419126520730544</v>
+        <v>1.407911699204045</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>1.631201710331993</v>
+        <v>1.455952929688832</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>1.315793490197981</v>
+        <v>1.610005215862269</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.498375006264553</v>
+        <v>1.504385958416329</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.611565817021521</v>
+        <v>1.515792388776243</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.696295106886843</v>
+        <v>1.546834793575356</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.431232582120191</v>
+        <v>1.511875775411057</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4043,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144">
-        <v>1.403627659629384</v>
+        <v>1.360407488491916</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.90568040820818</v>
+        <v>1.684367450363429</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.51140549606315</v>
+        <v>1.807321497785635</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.566799939623785</v>
+        <v>1.619837089077653</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>1.557109307742767</v>
+        <v>1.50357340577205</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.622495746879088</v>
+        <v>1.290676128703979</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.366346390459208</v>
+        <v>1.469610858074193</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.592182663912466</v>
+        <v>1.401265936798824</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>1</v>
       </c>
       <c r="F152">
-        <v>1.683988752222042</v>
+        <v>1.49719553633968</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.653163372103684</v>
+        <v>1.446360726266403</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154">
-        <v>1.52579603154608</v>
+        <v>1.61068662054413</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.453632891329779</v>
+        <v>1.486564731545009</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4283,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>1.553990940148087</v>
+        <v>1.684043332148944</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.616985793144611</v>
+        <v>1.495246666949589</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158">
-        <v>1.581736961480094</v>
+        <v>1.778122972880835</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.461229169807234</v>
+        <v>1.35644956951118</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.625964346185174</v>
+        <v>1.642160574586104</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.650709387457704</v>
+        <v>1.421612936702872</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>1.520399384934696</v>
+        <v>1.248236082946574</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.378853439123912</v>
+        <v>1.386796713052898</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.563590981380402</v>
+        <v>1.605237480684128</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.393840531878364</v>
+        <v>1.439784009467172</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.593591251538155</v>
+        <v>1.34833459568975</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.403395207889797</v>
+        <v>1.460578348395003</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.183961383902334</v>
+        <v>1.536826746690414</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.6435825936605</v>
+        <v>1.568433964568003</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.470733989029374</v>
+        <v>1.539066439746968</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.424932470481716</v>
+        <v>1.361134636813456</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.504173446821402</v>
+        <v>1.360561357396131</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.641445442381589</v>
+        <v>1.550771117897515</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.295552891469218</v>
+        <v>1.318107354548833</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>1.392804347103044</v>
+        <v>1.578489337509182</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176">
-        <v>1.572246558141538</v>
+        <v>1.440610133837092</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.533360874922984</v>
+        <v>1.511355749517817</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.711959113049182</v>
+        <v>1.409777984554884</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.482229018150789</v>
+        <v>1.675577036355903</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.706360776347921</v>
+        <v>1.484825873016284</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181">
-        <v>1.237381570803969</v>
+        <v>1.669585562315198</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.51996334812169</v>
+        <v>1.579932957039886</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.42145685404041</v>
+        <v>1.645920646538906</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184">
-        <v>1.539971139868079</v>
+        <v>1.45419141560853</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.303069355424177</v>
+        <v>1.626875835190501</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.545206413153203</v>
+        <v>1.757513305853536</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.326523575872379</v>
+        <v>1.458097419089138</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188">
-        <v>1.575662655729343</v>
+        <v>1.569339266850701</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.790097884369569</v>
+        <v>1.662490937975064</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.457714149912914</v>
+        <v>1.576967737610991</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.3576109666283</v>
+        <v>1.371922329574967</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>1.605499576055705</v>
+        <v>1.618817176477356</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.721637481218261</v>
+        <v>1.605143622354137</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.356414906262033</v>
+        <v>1.314348519799934</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>1.579220918460826</v>
+        <v>1.530664950725755</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.263841384193563</v>
+        <v>1.453251794275376</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>1</v>
       </c>
       <c r="F197">
-        <v>1.515449807880262</v>
+        <v>1.418167494680859</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198">
-        <v>1.423956107924748</v>
+        <v>1.627853215347296</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.457017771035498</v>
+        <v>1.587842580913118</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.46101045458255</v>
+        <v>1.475842287293224</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201">
-        <v>1.723438098472339</v>
+        <v>1.249973184077697</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.436676313698955</v>
+        <v>1.818442680569736</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.268426440706012</v>
+        <v>1.527709531927965</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204">
-        <v>1.285899964991931</v>
+        <v>1.513960254059519</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.613028750681848</v>
+        <v>1.605845659088554</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>1.641974103859184</v>
+        <v>1.890104719130584</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.143951887778755</v>
+        <v>1.506091367077476</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.417449324022803</v>
+        <v>1.409372323351263</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.353556723370905</v>
+        <v>1.62188885071364</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.663273028366762</v>
+        <v>1.798320799344896</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.728957052185124</v>
+        <v>1.512434104400769</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.413636060411148</v>
+        <v>1.49618249723471</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.623239568404844</v>
+        <v>1.322063637713284</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.504340649671008</v>
+        <v>1.520336906701625</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.755804467421026</v>
+        <v>1.558049128243596</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.753185304771876</v>
+        <v>1.183007199582216</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>1.630108124256552</v>
+        <v>1.262012139471121</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.716070533116107</v>
+        <v>1.342078833841817</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.518154053188337</v>
+        <v>1.431250079443657</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F220">
-        <v>1.659376083876188</v>
+        <v>1.787225034718255</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.597315552714214</v>
+        <v>1.361468425539083</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.344095365937168</v>
+        <v>1.261099005549279</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.46393042704984</v>
+        <v>1.765780357375751</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>1.450014021511456</v>
+        <v>1.449257449725539</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F225">
-        <v>1.570181723562091</v>
+        <v>1.455874241655591</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.441396021131288</v>
+        <v>1.503054134768532</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.19013030477182</v>
+        <v>1.617473859775165</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5723,10 +5723,10 @@
         <v>3</v>
       </c>
       <c r="E228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>1.3966209949813</v>
+        <v>1.649419234824274</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F229">
-        <v>1.333770197242665</v>
+        <v>1.785253774851827</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.541146851282385</v>
+        <v>1.614960903120388</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.49651467350194</v>
+        <v>1.303206959153592</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.686314907225014</v>
+        <v>1.477576157531465</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.376461683505773</v>
+        <v>1.335630230222772</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.627971393346298</v>
+        <v>1.45819431930385</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.631999807025378</v>
+        <v>1.602859719466564</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F236">
-        <v>1.468754405261559</v>
+        <v>1.700190991002534</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.440408762536852</v>
+        <v>1.79860306352321</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.488498027907947</v>
+        <v>1.4908785078443</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.544951656258453</v>
+        <v>1.475314180444608</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.685004820777567</v>
+        <v>1.154711102375111</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.401497229507526</v>
+        <v>1.605424206317406</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.577399858011088</v>
+        <v>1.44197869687593</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.628112953240061</v>
+        <v>1.442833312295076</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.567876756507101</v>
+        <v>1.349407336659274</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.455770354535734</v>
+        <v>1.596360152451019</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.585862061686773</v>
+        <v>1.523087485821911</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.413767652965622</v>
+        <v>1.377769002436573</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.50180822185409</v>
+        <v>1.606487543438943</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.416536266155799</v>
+        <v>1.637429514458654</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.697694813597683</v>
+        <v>1.772145972950413</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.459958964057616</v>
+        <v>1.62310596560178</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.496511847142985</v>
+        <v>1.556490257028778</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F253">
-        <v>1.380516245270284</v>
+        <v>1.42205958604199</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6243,10 +6243,10 @@
         <v>3</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F254">
-        <v>1.614985271850277</v>
+        <v>1.615063134978899</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.546868574340822</v>
+        <v>1.445003397369939</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.379371755065648</v>
+        <v>1.529890178423396</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.408962570789973</v>
+        <v>1.218331786970132</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/05_localizer.xlsx
+++ b/sequences/05_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>house</t>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
   </si>
   <si>
     <t>dog/dog044.jpg</t>
   </si>
   <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
     <t>flower/flower046.jpg</t>
   </si>
   <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
+    <t>flower/flower038.jpg</t>
   </si>
   <si>
     <t>dog/dog033.jpg</t>
   </si>
   <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
     <t>flower/flower037.jpg</t>
   </si>
   <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
   </si>
   <si>
     <t>house/house043.jpg</t>
   </si>
   <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
     <t>face/face036.jpg</t>
   </si>
   <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
+    <t>face/face047.jpg</t>
   </si>
   <si>
     <t>flower/flower039.jpg</t>
   </si>
   <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
     <t>face/face043.jpg</t>
   </si>
   <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
     <t>flower/flower040.jpg</t>
   </si>
   <si>
-    <t>flower/flower045.jpg</t>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
   </si>
   <si>
     <t>house/house056.jpg</t>
   </si>
   <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
     <t>face/face048.jpg</t>
   </si>
   <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
     <t>dog/dog048.jpg</t>
   </si>
   <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
   </si>
   <si>
     <t>dog/dog073.jpg</t>
   </si>
   <si>
-    <t>house/house076.jpg</t>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
   </si>
   <si>
     <t>face/face065.jpg</t>
   </si>
   <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
     <t>house/house070.jpg</t>
   </si>
   <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
   </si>
   <si>
     <t>house/house064.jpg</t>
   </si>
   <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
     <t>dog/dog075.jpg</t>
   </si>
   <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
     <t>face/face067.jpg</t>
   </si>
   <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
+    <t>dog/dog067.jpg</t>
   </si>
   <si>
     <t>dog/dog068.jpg</t>
   </si>
   <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
   </si>
   <si>
     <t>house/house091.jpg</t>
   </si>
   <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
+    <t>house/house086.jpg</t>
   </si>
   <si>
     <t>dog/dog089.jpg</t>
   </si>
   <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
   </si>
   <si>
     <t>dog/dog086.jpg</t>
   </si>
   <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
+    <t>house/house082.jpg</t>
   </si>
   <si>
     <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.697871871338877</v>
+        <v>1.485376649340713</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.532191970699345</v>
+        <v>1.834013148124075</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.644455876127409</v>
+        <v>1.467971633205365</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.364193465555169</v>
+        <v>1.612257176228442</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.797522552442248</v>
+        <v>1.368159861914609</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1.750832541775335</v>
+        <v>1.671788318673233</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1.521068848322213</v>
+        <v>1.338687234625619</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.718969963880556</v>
+        <v>1.381552184101102</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.680970356141924</v>
+        <v>1.497186655735628</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1383,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1.605111078816337</v>
+        <v>1.69160803588394</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1.70475556858313</v>
+        <v>1.325924697031666</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.472129572900276</v>
+        <v>1.346446810865132</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.670479827328054</v>
+        <v>1.473341365316458</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.15261742619064</v>
+        <v>1.284757232670171</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.364375724458697</v>
+        <v>1.593710664329092</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.374040442737152</v>
+        <v>1.288053201813204</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1.494957555430219</v>
+        <v>1.626924277871498</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.629121280932663</v>
+        <v>1.881803576064997</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.734784197466739</v>
+        <v>1.424606077385453</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.525690174777325</v>
+        <v>1.624162216807415</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.599411635320717</v>
+        <v>1.637069370688162</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.49122705211073</v>
+        <v>1.597748488586294</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.531153769724001</v>
+        <v>1.354622675358016</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.349251306776364</v>
+        <v>1.45374692712884</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1.00417158432043</v>
+        <v>1.602687979354542</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1.431253254696195</v>
+        <v>1.4832043102055</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.430183626006636</v>
+        <v>1.340892062304259</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.474553313282988</v>
+        <v>1.388027608436755</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.415341392217717</v>
+        <v>1.498755314534066</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.673018022712315</v>
+        <v>1.534313381669722</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1.488455666707174</v>
+        <v>1.397536238968013</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1.685273870365527</v>
+        <v>1.485208368365039</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.737638494542914</v>
+        <v>1.390527035171599</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.514528355343252</v>
+        <v>1.2343532659585</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.56389637466188</v>
+        <v>1.449596575239864</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.402722716250451</v>
+        <v>1.317353190697631</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.315778896247301</v>
+        <v>1.393280732376083</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.818598484076437</v>
+        <v>1.669345368027393</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.568689114442148</v>
+        <v>1.195632526508589</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.56415777076876</v>
+        <v>1.57445057770101</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.275328025682513</v>
+        <v>1.617822554648295</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.633703443682146</v>
+        <v>1.518150026175707</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>1</v>
       </c>
       <c r="F44">
-        <v>1.261589846973152</v>
+        <v>1.436550106606365</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.580778631784556</v>
+        <v>1.397675722811046</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.844346594566504</v>
+        <v>1.577300046307234</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.436345487474187</v>
+        <v>1.488456045065588</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.46674411184175</v>
+        <v>1.468960913022162</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>1.503737106053288</v>
+        <v>1.379298882632817</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>1.560166409341189</v>
+        <v>1.590375940342901</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.666092548526602</v>
+        <v>1.627125954951043</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>1.532221298944949</v>
+        <v>1.554125618419248</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.646615596493092</v>
+        <v>1.400174521740704</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.591633689104418</v>
+        <v>1.695177414501642</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.718107151278605</v>
+        <v>1.463388697176437</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.431500041055687</v>
+        <v>1.530368386524335</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.350670288037276</v>
+        <v>1.466838781705841</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.585264308375271</v>
+        <v>1.362135971475946</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.411890475913663</v>
+        <v>1.483269280910467</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.320475972619784</v>
+        <v>1.665148106950917</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.686518135940877</v>
+        <v>1.790815770770703</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.375276873932372</v>
+        <v>1.285601148720759</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>1.40604484781659</v>
+        <v>1.495144623284297</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.565385703174458</v>
+        <v>1.600609115688776</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.636830505550421</v>
+        <v>1.596479896338176</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>1.290764191537903</v>
+        <v>1.764043332920842</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.593061464525446</v>
+        <v>1.57841743415102</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.486739287311662</v>
+        <v>1.396835434198741</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.337882388840565</v>
+        <v>1.423809229667582</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.745043804214192</v>
+        <v>1.586112635338558</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.5167880938565</v>
+        <v>1.800048727121792</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.114470270244022</v>
+        <v>1.441234589972721</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.588765611194882</v>
+        <v>1.559077559948883</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.702924163087173</v>
+        <v>1.349199855378158</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>1</v>
       </c>
       <c r="F75">
-        <v>1.463304079013264</v>
+        <v>1.68228887913763</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.604429287362741</v>
+        <v>1.399727911308783</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.418619976575166</v>
+        <v>1.432556444080353</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.265486454353918</v>
+        <v>1.521259698057529</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.49580335450848</v>
+        <v>1.38728438435885</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>1.337315011568676</v>
+        <v>1.596641317419491</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2783,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>1.543035894888547</v>
+        <v>1.55503802440956</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>1.446199719166939</v>
+        <v>1.314289826829791</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>1</v>
       </c>
       <c r="F83">
-        <v>1.380286534052385</v>
+        <v>1.511250796550005</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.780670457992529</v>
+        <v>1.471572532600589</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.433833650117098</v>
+        <v>1.389908721196577</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>1.524164216672353</v>
+        <v>1.271645337047346</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.76861122572875</v>
+        <v>1.895594154659042</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.604210772502803</v>
+        <v>1.690954846408401</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.314570770829314</v>
+        <v>1.561065274828875</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>1.368227281454251</v>
+        <v>1.651115992314826</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.470574723221725</v>
+        <v>1.519642843830736</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.470936158890549</v>
+        <v>1.566089771463209</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.380089000315542</v>
+        <v>1.39608105321261</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.309788078875605</v>
+        <v>1.643985970407592</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95">
-        <v>1.639284299389807</v>
+        <v>1.625122116258996</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.587280333940042</v>
+        <v>1.296410452222234</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.398851106409187</v>
+        <v>1.536185656695067</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.329033140418556</v>
+        <v>1.536380888206249</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.679259234755438</v>
+        <v>1.398794993995473</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.630716101372235</v>
+        <v>1.358603996566225</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>1.387115941923204</v>
+        <v>1.672606363756965</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>1.484424965858358</v>
+        <v>1.587202984362401</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.356435297884349</v>
+        <v>1.584956464590189</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3243,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104">
-        <v>1.727745666134665</v>
+        <v>1.639503249815514</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.506324427468711</v>
+        <v>1.396898653112904</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.461231019219868</v>
+        <v>1.522403845704965</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.450040167153654</v>
+        <v>1.449603068636136</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.713199848944687</v>
+        <v>1.526469835299877</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.321857927809009</v>
+        <v>1.622952723543234</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.35629091032666</v>
+        <v>1.384389256438756</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3383,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>1.721775430133669</v>
+        <v>1.686596757095753</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.15879482216726</v>
+        <v>1.7572906030914</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.676308220833527</v>
+        <v>1.428168109893667</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.372142284384573</v>
+        <v>1.329799062694838</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115">
-        <v>1.362470981036713</v>
+        <v>1.703955916654215</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.184211922394053</v>
+        <v>1.385025841436746</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.675357658327068</v>
+        <v>1.386761408335152</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.19375387389246</v>
+        <v>1.417798664488226</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.448466708922262</v>
+        <v>1.409136745438202</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.455072681121949</v>
+        <v>1.590180300411264</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.400338415429314</v>
+        <v>1.36857654761216</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.204737875517158</v>
+        <v>1.353188505693248</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.60296349378107</v>
+        <v>1.419637234196729</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.635812909868974</v>
+        <v>1.380242081861831</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.424699723703662</v>
+        <v>1.992397775635353</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.397568412109594</v>
+        <v>1.455879476304265</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.481122386968176</v>
+        <v>1.800077959650919</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.357730215694524</v>
+        <v>1.522583250361425</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.386552001210598</v>
+        <v>1.528934879623661</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3763,10 +3763,10 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130">
-        <v>1.949033238615225</v>
+        <v>1.321505079840862</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.54584163142572</v>
+        <v>1.738912234966385</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.3891644705576</v>
+        <v>1.504348316116455</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.69210841854524</v>
+        <v>1.444731124873436</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.34782727568042</v>
+        <v>1.501186218387819</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.332001340347778</v>
+        <v>1.647786774534872</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.661791585011011</v>
+        <v>1.607547506707295</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.407911699204045</v>
+        <v>1.603450730827039</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.455952929688832</v>
+        <v>1.483678064738122</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.610005215862269</v>
+        <v>1.653027511824685</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.504385958416329</v>
+        <v>1.445695917839287</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.515792388776243</v>
+        <v>1.525732030420968</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.546834793575356</v>
+        <v>1.445298110815638</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.511875775411057</v>
+        <v>1.365981816784873</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4043,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>1.360407488491916</v>
+        <v>1.513848899463546</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.684367450363429</v>
+        <v>1.441704020970668</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.807321497785635</v>
+        <v>1.525900210806901</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.619837089077653</v>
+        <v>1.540074252116252</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.50357340577205</v>
+        <v>1.398028474432528</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149">
-        <v>1.290676128703979</v>
+        <v>1.435643187777934</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4163,10 +4163,10 @@
         <v>2</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150">
-        <v>1.469610858074193</v>
+        <v>1.659083090219833</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.401265936798824</v>
+        <v>1.346553775309726</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>1.49719553633968</v>
+        <v>1.501566494823317</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.446360726266403</v>
+        <v>1.510725643947765</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>1.61068662054413</v>
+        <v>1.681168294669183</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.486564731545009</v>
+        <v>1.382362843040202</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.684043332148944</v>
+        <v>1.643310488228467</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.495246666949589</v>
+        <v>1.261954686663816</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>1.778122972880835</v>
+        <v>1.389846084196035</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.35644956951118</v>
+        <v>1.655905911928639</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.642160574586104</v>
+        <v>1.398435450815833</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161">
-        <v>1.421612936702872</v>
+        <v>1.646531226239992</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.248236082946574</v>
+        <v>1.875086615814965</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.386796713052898</v>
+        <v>1.632851908481636</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.605237480684128</v>
+        <v>1.551540840906235</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.439784009467172</v>
+        <v>1.389933058544701</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.34833459568975</v>
+        <v>1.595525164306559</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.460578348395003</v>
+        <v>1.552443206586558</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.536826746690414</v>
+        <v>1.428675785757472</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.568433964568003</v>
+        <v>1.496222008241656</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.539066439746968</v>
+        <v>1.363784791604117</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4583,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171">
-        <v>1.361134636813456</v>
+        <v>1.638412726239162</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.360561357396131</v>
+        <v>1.534852321239571</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.550771117897515</v>
+        <v>1.397090948806237</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174">
-        <v>1.318107354548833</v>
+        <v>1.474215095953193</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.578489337509182</v>
+        <v>1.678744997223928</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>1.440610133837092</v>
+        <v>1.386092116292688</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.511355749517817</v>
+        <v>1.116506825374491</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.409777984554884</v>
+        <v>1.21846135300818</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179">
-        <v>1.675577036355903</v>
+        <v>1.447013254950778</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.484825873016284</v>
+        <v>1.460148670724648</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>1.669585562315198</v>
+        <v>1.374374976080843</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.579932957039886</v>
+        <v>1.439309064462386</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183">
-        <v>1.645920646538906</v>
+        <v>1.514204283839807</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>1.45419141560853</v>
+        <v>1.430398152076671</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.626875835190501</v>
+        <v>1.476438200742579</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.757513305853536</v>
+        <v>1.256329968067889</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.458097419089138</v>
+        <v>1.704690788341851</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>1.569339266850701</v>
+        <v>1.642423245651884</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.662490937975064</v>
+        <v>1.49202297080405</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.576967737610991</v>
+        <v>1.39115477777581</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.371922329574967</v>
+        <v>1.378448443207427</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.618817176477356</v>
+        <v>1.507012043002748</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.605143622354137</v>
+        <v>1.829305594700716</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.314348519799934</v>
+        <v>1.404078211774328</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195">
-        <v>1.530664950725755</v>
+        <v>1.700769834001614</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196">
-        <v>1.453251794275376</v>
+        <v>1.474491624894447</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>1.418167494680859</v>
+        <v>1.914691629388335</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>1.627853215347296</v>
+        <v>1.479814160013551</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.587842580913118</v>
+        <v>1.406146227756845</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.475842287293224</v>
+        <v>1.600750108106628</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>1.249973184077697</v>
+        <v>1.485849086806203</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.818442680569736</v>
+        <v>1.648035208752265</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.527709531927965</v>
+        <v>1.628014510886959</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>1</v>
       </c>
       <c r="F204">
-        <v>1.513960254059519</v>
+        <v>1.277185704539971</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.605845659088554</v>
+        <v>1.487735562747419</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.890104719130584</v>
+        <v>1.338994230535701</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.506091367077476</v>
+        <v>1.671963034679558</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.409372323351263</v>
+        <v>1.441025133439308</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.62188885071364</v>
+        <v>1.336988557062369</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210">
-        <v>1.798320799344896</v>
+        <v>1.408063617007771</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211">
-        <v>1.512434104400769</v>
+        <v>1.366853076898265</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.49618249723471</v>
+        <v>1.61869887949491</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.322063637713284</v>
+        <v>1.700417684396959</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.520336906701625</v>
+        <v>1.736501690671064</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.558049128243596</v>
+        <v>1.554567011657102</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.183007199582216</v>
+        <v>1.462618743858779</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.262012139471121</v>
+        <v>1.268178960290937</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.342078833841817</v>
+        <v>1.671906658527355</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.431250079443657</v>
+        <v>1.715714481528122</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>1.787225034718255</v>
+        <v>1.531092954953739</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.361468425539083</v>
+        <v>1.474088490781722</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.261099005549279</v>
+        <v>1.632873105091628</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5623,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F223">
-        <v>1.765780357375751</v>
+        <v>1.618419746164874</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.449257449725539</v>
+        <v>1.395541633735863</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>1.455874241655591</v>
+        <v>1.635586077700405</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.503054134768532</v>
+        <v>1.538468163989173</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.617473859775165</v>
+        <v>1.676421806305058</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.649419234824274</v>
+        <v>1.538312903618265</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.785253774851827</v>
+        <v>1.479805997819095</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.614960903120388</v>
+        <v>1.505449307850532</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
-        <v>1.303206959153592</v>
+        <v>1.525105803165988</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.477576157531465</v>
+        <v>1.755725512096851</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.335630230222772</v>
+        <v>1.497867946001681</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.45819431930385</v>
+        <v>1.507797576806364</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.602859719466564</v>
+        <v>1.625702773843337</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>1.700190991002534</v>
+        <v>1.449923828769211</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.79860306352321</v>
+        <v>1.34670198774935</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.4908785078443</v>
+        <v>1.869788686736639</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.475314180444608</v>
+        <v>1.604906532916505</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.154711102375111</v>
+        <v>1.469839385957156</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.605424206317406</v>
+        <v>1.424508802623962</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.44197869687593</v>
+        <v>1.225006626438229</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.442833312295076</v>
+        <v>1.515922963570375</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.349407336659274</v>
+        <v>1.383338944502614</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.596360152451019</v>
+        <v>1.519841474874714</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.523087485821911</v>
+        <v>1.358132678621346</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.377769002436573</v>
+        <v>1.488423153503468</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.606487543438943</v>
+        <v>1.780903383502359</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.637429514458654</v>
+        <v>1.506412642742589</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.772145972950413</v>
+        <v>1.330680110884217</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.62310596560178</v>
+        <v>1.418961691331165</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.556490257028778</v>
+        <v>1.590832764320386</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F253">
-        <v>1.42205958604199</v>
+        <v>1.560768960107699</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6243,10 +6243,10 @@
         <v>3</v>
       </c>
       <c r="E254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F254">
-        <v>1.615063134978899</v>
+        <v>1.593514137694273</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.445003397369939</v>
+        <v>1.560009169128541</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.529890178423396</v>
+        <v>1.653391964601311</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.218331786970132</v>
+        <v>1.645448008797195</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/05_localizer.xlsx
+++ b/sequences/05_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>house</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>dog</t>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
   </si>
   <si>
     <t>house/house042.jpg</t>
   </si>
   <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
     <t>face/face032.jpg</t>
   </si>
   <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
   </si>
   <si>
     <t>face/face033.jpg</t>
   </si>
   <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
   </si>
   <si>
     <t>dog/dog047.jpg</t>
   </si>
   <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
     <t>dog/dog036.jpg</t>
   </si>
   <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
   </si>
   <si>
     <t>house/house062.jpg</t>
   </si>
   <si>
-    <t>flower/flower059.jpg</t>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
   </si>
   <si>
     <t>flower/flower062.jpg</t>
   </si>
   <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
+    <t>house/house055.jpg</t>
   </si>
   <si>
     <t>flower/flower065.jpg</t>
   </si>
   <si>
-    <t>flower/flower060.jpg</t>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
   </si>
   <si>
     <t>dog/dog060.jpg</t>
   </si>
   <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
     <t>dog/dog055.jpg</t>
   </si>
   <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
   </si>
   <si>
     <t>face/face060.jpg</t>
   </si>
   <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
   </si>
   <si>
     <t>face/face077.jpg</t>
   </si>
   <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
   </si>
   <si>
     <t>dog/dog077.jpg</t>
   </si>
   <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
   </si>
   <si>
     <t>house/house076.jpg</t>
   </si>
   <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
   </si>
   <si>
     <t>house/house073.jpg</t>
   </si>
   <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
   </si>
   <si>
     <t>face/face079.jpg</t>
   </si>
   <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
+    <t>house/house065.jpg</t>
   </si>
   <si>
     <t>face/face064.jpg</t>
   </si>
   <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
   </si>
   <si>
     <t>flower/flower097.jpg</t>
   </si>
   <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
     <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1.485376649340713</v>
+        <v>1.542564126480386</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.834013148124075</v>
+        <v>1.375762042102986</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.467971633205365</v>
+        <v>1.497167847667362</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.612257176228442</v>
+        <v>1.46526495652444</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.368159861914609</v>
+        <v>1.581379102204064</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1.671788318673233</v>
+        <v>1.442551828944157</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.338687234625619</v>
+        <v>1.797044892268269</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.381552184101102</v>
+        <v>1.510225534131273</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.497186655735628</v>
+        <v>1.466271660482908</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1383,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1.69160803588394</v>
+        <v>1.512502241723916</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1.325924697031666</v>
+        <v>1.545386388575696</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.346446810865132</v>
+        <v>1.393115397441025</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.473341365316458</v>
+        <v>1.679022050628246</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.284757232670171</v>
+        <v>1.489577659872626</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.593710664329092</v>
+        <v>1.483733628674512</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.288053201813204</v>
+        <v>1.328921399748779</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.626924277871498</v>
+        <v>1.400034904528958</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.881803576064997</v>
+        <v>1.532668735468368</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.424606077385453</v>
+        <v>1.356888458122587</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.624162216807415</v>
+        <v>1.66071694165119</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.637069370688162</v>
+        <v>1.202467675700288</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.597748488586294</v>
+        <v>1.634599470419626</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.354622675358016</v>
+        <v>1.733160014086593</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.45374692712884</v>
+        <v>1.589053665709147</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.602687979354542</v>
+        <v>1.367079907936659</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.4832043102055</v>
+        <v>1.589013219681041</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.340892062304259</v>
+        <v>1.703928463966053</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.388027608436755</v>
+        <v>1.52999513984074</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.498755314534066</v>
+        <v>1.283845889311761</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.534313381669722</v>
+        <v>1.67325849307307</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1.397536238968013</v>
+        <v>1.5474166175588</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>1.485208368365039</v>
+        <v>1.780657748492254</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.390527035171599</v>
+        <v>1.483776959264963</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.2343532659585</v>
+        <v>1.635512886674395</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.449596575239864</v>
+        <v>1.789636235421747</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.317353190697631</v>
+        <v>1.570010311535885</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.393280732376083</v>
+        <v>1.367076434153402</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.669345368027393</v>
+        <v>1.352993743805704</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.195632526508589</v>
+        <v>1.789821867560439</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.57445057770101</v>
+        <v>1.455500942692515</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.617822554648295</v>
+        <v>1.560668801067826</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.518150026175707</v>
+        <v>1.2269864461258</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1.436550106606365</v>
+        <v>1.636413722800599</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.397675722811046</v>
+        <v>1.812750240747111</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>1.577300046307234</v>
+        <v>1.546303714255492</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>1.488456045065588</v>
+        <v>1.702955431714218</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.468960913022162</v>
+        <v>1.576821501832735</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>1.379298882632817</v>
+        <v>1.539065191401058</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>1.590375940342901</v>
+        <v>1.504744811858209</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>1.627125954951043</v>
+        <v>1.978999288899884</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.554125618419248</v>
+        <v>1.359480166054099</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.400174521740704</v>
+        <v>1.611320616884627</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.695177414501642</v>
+        <v>1.860311610252222</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.463388697176437</v>
+        <v>1.328316075759438</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.530368386524335</v>
+        <v>1.600802401591159</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.466838781705841</v>
+        <v>1.531662088096238</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.362135971475946</v>
+        <v>1.718353888290925</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.483269280910467</v>
+        <v>1.448374117870717</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>1.665148106950917</v>
+        <v>1.504635777591444</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>1.790815770770703</v>
+        <v>1.47404143739936</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.285601148720759</v>
+        <v>1.421440771622713</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>1.495144623284297</v>
+        <v>1.709162534187216</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.600609115688776</v>
+        <v>1.461366279148731</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.596479896338176</v>
+        <v>1.175304471074431</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>1.764043332920842</v>
+        <v>1.470123526563882</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.57841743415102</v>
+        <v>1.410648921392203</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.396835434198741</v>
+        <v>1.538399620246085</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.423809229667582</v>
+        <v>1.133679319481207</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.586112635338558</v>
+        <v>1.503120640110053</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.800048727121792</v>
+        <v>1.64813839306647</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.441234589972721</v>
+        <v>1.537655072887822</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.559077559948883</v>
+        <v>1.594349387877324</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.349199855378158</v>
+        <v>1.413988606637546</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>1.68228887913763</v>
+        <v>1.554114630682661</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.399727911308783</v>
+        <v>1.675464802281943</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.432556444080353</v>
+        <v>1.62011680020814</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.521259698057529</v>
+        <v>1.638629900750146</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.38728438435885</v>
+        <v>1.271600598669282</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.596641317419491</v>
+        <v>1.494769009128613</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2783,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>1.55503802440956</v>
+        <v>1.518590729860021</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>1.314289826829791</v>
+        <v>1.408980716964189</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2823,10 +2823,10 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>1.511250796550005</v>
+        <v>1.375020359115952</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.471572532600589</v>
+        <v>1.536666411055554</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.389908721196577</v>
+        <v>1.383136843438755</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.271645337047346</v>
+        <v>1.510302785820695</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.895594154659042</v>
+        <v>1.519974626518871</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.690954846408401</v>
+        <v>1.688642205562989</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.561065274828875</v>
+        <v>1.728634349934287</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>1.651115992314826</v>
+        <v>1.488406157338422</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91">
-        <v>1.519642843830736</v>
+        <v>1.05917671028692</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.566089771463209</v>
+        <v>1.548126890637372</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.39608105321261</v>
+        <v>1.455896273033928</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.643985970407592</v>
+        <v>1.325492034891785</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F95">
-        <v>1.625122116258996</v>
+        <v>1.665926259220488</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.296410452222234</v>
+        <v>1.386056869724804</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.536185656695067</v>
+        <v>1.363581131057432</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.536380888206249</v>
+        <v>1.395692320076137</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.398794993995473</v>
+        <v>1.666079921986597</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.358603996566225</v>
+        <v>1.491686983438</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>1.672606363756965</v>
+        <v>1.637859506890145</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.587202984362401</v>
+        <v>1.401785907764891</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.584956464590189</v>
+        <v>1.567698916316664</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3243,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>1.639503249815514</v>
+        <v>1.400803451866243</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.396898653112904</v>
+        <v>1.549989087142148</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.522403845704965</v>
+        <v>1.453091113454646</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.449603068636136</v>
+        <v>1.226329287312875</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.526469835299877</v>
+        <v>1.832723395971946</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.622952723543234</v>
+        <v>1.694514098877201</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.384389256438756</v>
+        <v>1.463101080997633</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.686596757095753</v>
+        <v>1.526828697428244</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.7572906030914</v>
+        <v>1.483230898650664</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.428168109893667</v>
+        <v>1.443262718050882</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114">
-        <v>1.329799062694838</v>
+        <v>1.400228356337001</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>1.703955916654215</v>
+        <v>1.587509590986989</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.385025841436746</v>
+        <v>1.628808861346818</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.386761408335152</v>
+        <v>1.465935465411125</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118">
-        <v>1.417798664488226</v>
+        <v>1.864049272054692</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.409136745438202</v>
+        <v>1.489640355485371</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.590180300411264</v>
+        <v>1.464216671361743</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.36857654761216</v>
+        <v>1.527745515885247</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.353188505693248</v>
+        <v>1.492959231013484</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.419637234196729</v>
+        <v>1.664195914743579</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124">
-        <v>1.380242081861831</v>
+        <v>1.499044982928371</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125">
-        <v>1.992397775635353</v>
+        <v>1.601754573871235</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.455879476304265</v>
+        <v>1.5680447994284</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.800077959650919</v>
+        <v>1.194168643294531</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.522583250361425</v>
+        <v>1.082911438965688</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.528934879623661</v>
+        <v>1.535576893586662</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3763,10 +3763,10 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>1.321505079840862</v>
+        <v>1.315353638601974</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.738912234966385</v>
+        <v>1.506689047457859</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.504348316116455</v>
+        <v>1.354138299267032</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.444731124873436</v>
+        <v>1.397672528086942</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.501186218387819</v>
+        <v>1.534420564006362</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3863,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135">
-        <v>1.647786774534872</v>
+        <v>1.440895642451906</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.607547506707295</v>
+        <v>1.3242139487969</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.603450730827039</v>
+        <v>1.58059370523362</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.483678064738122</v>
+        <v>1.70438706038764</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.653027511824685</v>
+        <v>1.107584541305793</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.445695917839287</v>
+        <v>1.579424784567368</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.525732030420968</v>
+        <v>1.55349202418663</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.445298110815638</v>
+        <v>1.559524242187297</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.365981816784873</v>
+        <v>1.340785444380151</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.513848899463546</v>
+        <v>1.523189772581611</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.441704020970668</v>
+        <v>1.387003888875193</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146">
-        <v>1.525900210806901</v>
+        <v>1.388824895206178</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.540074252116252</v>
+        <v>1.513374041010969</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148">
-        <v>1.398028474432528</v>
+        <v>1.30127591329259</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>1.435643187777934</v>
+        <v>1.395801918207455</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4163,10 +4163,10 @@
         <v>2</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>1.659083090219833</v>
+        <v>1.421384296819168</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.346553775309726</v>
+        <v>1.586572068133045</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.501566494823317</v>
+        <v>1.354972882704762</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.510725643947765</v>
+        <v>1.368039005507272</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.681168294669183</v>
+        <v>1.320645076523968</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.382362843040202</v>
+        <v>1.440233184416637</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.643310488228467</v>
+        <v>1.706064359095078</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4303,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157">
-        <v>1.261954686663816</v>
+        <v>1.387648881707793</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.389846084196035</v>
+        <v>1.691629929743521</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.655905911928639</v>
+        <v>1.318476379326348</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160">
-        <v>1.398435450815833</v>
+        <v>1.699673786330322</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>1.646531226239992</v>
+        <v>1.706133750644448</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.875086615814965</v>
+        <v>1.501865926904955</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.632851908481636</v>
+        <v>1.525575818852654</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.551540840906235</v>
+        <v>1.671177132671096</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.389933058544701</v>
+        <v>1.442725929813381</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.595525164306559</v>
+        <v>1.627828120869716</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.552443206586558</v>
+        <v>1.389440694594352</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168">
-        <v>1.428675785757472</v>
+        <v>1.564386502925474</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.496222008241656</v>
+        <v>1.350719881775453</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.363784791604117</v>
+        <v>1.624332198329176</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4583,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>1.638412726239162</v>
+        <v>1.481136887484055</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4603,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172">
-        <v>1.534852321239571</v>
+        <v>1.421403984411798</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173">
-        <v>1.397090948806237</v>
+        <v>1.358464427006554</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>1.474215095953193</v>
+        <v>1.24881422443703</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.678744997223928</v>
+        <v>1.394903347755987</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.386092116292688</v>
+        <v>1.405922814768483</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.116506825374491</v>
+        <v>1.218372673996463</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.21846135300818</v>
+        <v>1.289443069791977</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>1.447013254950778</v>
+        <v>1.491801437079848</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.460148670724648</v>
+        <v>1.352268665169287</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.374374976080843</v>
+        <v>1.447205738535444</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.439309064462386</v>
+        <v>1.490886403625094</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>1.514204283839807</v>
+        <v>1.448071698310609</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.430398152076671</v>
+        <v>1.299789524816483</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.476438200742579</v>
+        <v>1.679911110599023</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.256329968067889</v>
+        <v>1.458679643317789</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.704690788341851</v>
+        <v>1.497973656777895</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.642423245651884</v>
+        <v>1.510952037233309</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.49202297080405</v>
+        <v>1.626608912260633</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.39115477777581</v>
+        <v>1.407949869813596</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.378448443207427</v>
+        <v>1.665764326282088</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.507012043002748</v>
+        <v>1.402760279256475</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.829305594700716</v>
+        <v>1.466196771049711</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.404078211774328</v>
+        <v>1.432847409765473</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>1.700769834001614</v>
+        <v>1.345565196671821</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>1.474491624894447</v>
+        <v>1.272769363351846</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197">
-        <v>1.914691629388335</v>
+        <v>1.047596792148066</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.479814160013551</v>
+        <v>1.426894067492448</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.406146227756845</v>
+        <v>1.334822148938645</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.600750108106628</v>
+        <v>1.72824330894679</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.485849086806203</v>
+        <v>1.548828151001774</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.648035208752265</v>
+        <v>1.734467050608365</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.628014510886959</v>
+        <v>1.647866096833948</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>1.277185704539971</v>
+        <v>1.532934838730567</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.487735562747419</v>
+        <v>1.449442003699843</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.338994230535701</v>
+        <v>1.382184524496389</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.671963034679558</v>
+        <v>1.400478075866028</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.441025133439308</v>
+        <v>1.525908151210795</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.336988557062369</v>
+        <v>1.665271159130791</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210">
-        <v>1.408063617007771</v>
+        <v>1.475262864424884</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>1.366853076898265</v>
+        <v>1.388131539240371</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.61869887949491</v>
+        <v>1.333894819522828</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F213">
-        <v>1.700417684396959</v>
+        <v>1.407123109779552</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.736501690671064</v>
+        <v>1.412950401882373</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.554567011657102</v>
+        <v>1.750129273845731</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.462618743858779</v>
+        <v>1.320711734381691</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.268178960290937</v>
+        <v>1.690724728016528</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.671906658527355</v>
+        <v>1.429080222413676</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.715714481528122</v>
+        <v>1.409038550911758</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.531092954953739</v>
+        <v>1.399285307037632</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.474088490781722</v>
+        <v>1.435973584307798</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.632873105091628</v>
+        <v>1.694417760689844</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5623,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F223">
-        <v>1.618419746164874</v>
+        <v>1.505827524499374</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F224">
-        <v>1.395541633735863</v>
+        <v>1.345219885510564</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.635586077700405</v>
+        <v>1.574877975097709</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.538468163989173</v>
+        <v>1.348881638837344</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.676421806305058</v>
+        <v>1.629170958546986</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.538312903618265</v>
+        <v>1.433887742953604</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.479805997819095</v>
+        <v>1.654378298308266</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.505449307850532</v>
+        <v>1.494081618395647</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>1.525105803165988</v>
+        <v>1.225722220915157</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.755725512096851</v>
+        <v>1.529719266865302</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.497867946001681</v>
+        <v>1.192942185918005</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.507797576806364</v>
+        <v>1.257717807872508</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5863,10 +5863,10 @@
         <v>3</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F235">
-        <v>1.625702773843337</v>
+        <v>1.488393656777191</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.449923828769211</v>
+        <v>1.16015632885713</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.34670198774935</v>
+        <v>1.487232849889417</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5923,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F238">
-        <v>1.869788686736639</v>
+        <v>1.388181130565433</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.604906532916505</v>
+        <v>1.384672342515397</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.469839385957156</v>
+        <v>1.531792652342202</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.424508802623962</v>
+        <v>1.553617226757946</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.225006626438229</v>
+        <v>1.40599084792504</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.515922963570375</v>
+        <v>1.513692140819348</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.383338944502614</v>
+        <v>1.452120559192423</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.519841474874714</v>
+        <v>1.592955681388889</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.358132678621346</v>
+        <v>1.359325846516911</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.488423153503468</v>
+        <v>1.714463205116349</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.780903383502359</v>
+        <v>1.534323172003805</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F249">
-        <v>1.506412642742589</v>
+        <v>1.552171763738708</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.330680110884217</v>
+        <v>1.592082295850499</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F251">
-        <v>1.418961691331165</v>
+        <v>1.506574694671701</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252">
-        <v>1.590832764320386</v>
+        <v>1.523783026701602</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F253">
-        <v>1.560768960107699</v>
+        <v>1.637179923694324</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.593514137694273</v>
+        <v>1.443041550779224</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.560009169128541</v>
+        <v>1.241757554495594</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.653391964601311</v>
+        <v>1.878497549049812</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.645448008797195</v>
+        <v>1.853105753568316</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/05_localizer.xlsx
+++ b/sequences/05_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
-    <t>house</t>
-  </si>
-  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>face</t>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
   </si>
   <si>
     <t>flower/flower041.jpg</t>
   </si>
   <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
   </si>
   <si>
     <t>dog/dog045.jpg</t>
   </si>
   <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
   </si>
   <si>
     <t>house/house040.jpg</t>
   </si>
   <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
     <t>house/house042.jpg</t>
   </si>
   <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
   </si>
   <si>
     <t>dog/dog056.jpg</t>
   </si>
   <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
   </si>
   <si>
     <t>flower/flower050.jpg</t>
   </si>
   <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
   </si>
   <si>
     <t>house/house057.jpg</t>
   </si>
   <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
   </si>
   <si>
     <t>face/face073.jpg</t>
   </si>
   <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
     <t>face/face078.jpg</t>
   </si>
   <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
     <t>flower/flower075.jpg</t>
   </si>
   <si>
-    <t>flower/flower072.jpg</t>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
   </si>
   <si>
     <t>face/face069.jpg</t>
   </si>
   <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
     <t>flower/flower069.jpg</t>
   </si>
   <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
   </si>
   <si>
     <t>face/face087.jpg</t>
   </si>
   <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
   </si>
   <si>
     <t>house/house095.jpg</t>
   </si>
   <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
     <t>face/face094.jpg</t>
   </si>
   <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
   </si>
   <si>
     <t>flower/flower089.jpg</t>
   </si>
   <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
     <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.542564126480386</v>
+        <v>1.671857455544411</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1.375762042102986</v>
+        <v>1.32605101012454</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.497167847667362</v>
+        <v>1.536444913345895</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.46526495652444</v>
+        <v>1.373411481299595</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.581379102204064</v>
+        <v>1.518726393727051</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1.442551828944157</v>
+        <v>1.548045958899588</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.797044892268269</v>
+        <v>1.562561251251558</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.510225534131273</v>
+        <v>1.581998217960975</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.466271660482908</v>
+        <v>1.802480554763921</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.512502241723916</v>
+        <v>1.519366331160353</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.545386388575696</v>
+        <v>1.780043320558096</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.393115397441025</v>
+        <v>1.475945946022424</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.679022050628246</v>
+        <v>1.459349747337331</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.489577659872626</v>
+        <v>1.710555977727072</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.483733628674512</v>
+        <v>1.375296949308653</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.328921399748779</v>
+        <v>1.625194741948702</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.400034904528958</v>
+        <v>1.329757653283131</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.532668735468368</v>
+        <v>1.457477866183728</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.356888458122587</v>
+        <v>1.337518178814457</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.66071694165119</v>
+        <v>1.69288210073176</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.202467675700288</v>
+        <v>1.344104297668565</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.634599470419626</v>
+        <v>1.542026648534441</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.733160014086593</v>
+        <v>1.53504659294463</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.589053665709147</v>
+        <v>1.406729665908295</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1.367079907936659</v>
+        <v>1.704411425745305</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.589013219681041</v>
+        <v>1.450968602479101</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.703928463966053</v>
+        <v>1.528506702208694</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.52999513984074</v>
+        <v>1.562034675618677</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1.283845889311761</v>
+        <v>1.545667249694278</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.67325849307307</v>
+        <v>1.636216407531061</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1.5474166175588</v>
+        <v>1.408668150699766</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.780657748492254</v>
+        <v>1.582830846842668</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1.483776959264963</v>
+        <v>1.594882861799868</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.635512886674395</v>
+        <v>1.622869581125808</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1.789636235421747</v>
+        <v>1.542106393913529</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.570010311535885</v>
+        <v>1.735252051531948</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.367076434153402</v>
+        <v>1.693466368960563</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.352993743805704</v>
+        <v>1.469240137176684</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.789821867560439</v>
+        <v>1.190915523575083</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.455500942692515</v>
+        <v>1.557340920833088</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.560668801067826</v>
+        <v>1.418571487663556</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.2269864461258</v>
+        <v>1.891726580250084</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.636413722800599</v>
+        <v>1.302603489807526</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.812750240747111</v>
+        <v>1.692000371468807</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>1.546303714255492</v>
+        <v>1.556268775157803</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1.702955431714218</v>
+        <v>1.510787449824405</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.576821501832735</v>
+        <v>1.865658279209885</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.539065191401058</v>
+        <v>1.492118921267884</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>1.504744811858209</v>
+        <v>1.667686286733085</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="F51">
-        <v>1.978999288899884</v>
+        <v>1.512056410495829</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.359480166054099</v>
+        <v>1.603326284104218</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.611320616884627</v>
+        <v>1.560669537973052</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.860311610252222</v>
+        <v>1.258528488858177</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.328316075759438</v>
+        <v>1.547657307314496</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.600802401591159</v>
+        <v>1.478886760415855</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.531662088096238</v>
+        <v>1.511596201949828</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.718353888290925</v>
+        <v>1.459923536207108</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.448374117870717</v>
+        <v>1.525258832902589</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>1.504635777591444</v>
+        <v>1.451373864215144</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>1.47404143739936</v>
+        <v>1.552881016681663</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.421440771622713</v>
+        <v>1.606724156256848</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>1.709162534187216</v>
+        <v>1.491723428491588</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.461366279148731</v>
+        <v>1.570104158519005</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.175304471074431</v>
+        <v>1.618069522921193</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>1.470123526563882</v>
+        <v>1.584803968358556</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.410648921392203</v>
+        <v>1.444783771882489</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.538399620246085</v>
+        <v>1.667209043588536</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.133679319481207</v>
+        <v>1.622422548913936</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.503120640110053</v>
+        <v>1.662225419195776</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.64813839306647</v>
+        <v>1.402403167688269</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.537655072887822</v>
+        <v>1.348483934803914</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.594349387877324</v>
+        <v>1.743161009640177</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.413988606637546</v>
+        <v>1.58720492752887</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.554114630682661</v>
+        <v>1.361606639201785</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.675464802281943</v>
+        <v>1.314733238452857</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2703,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>1.62011680020814</v>
+        <v>1.482470177359256</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>1.638629900750146</v>
+        <v>1.356083628042087</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.271600598669282</v>
+        <v>1.563234009305301</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>1.494769009128613</v>
+        <v>1.706832208491371</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.518590729860021</v>
+        <v>1.658392971547876</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.408980716964189</v>
+        <v>1.40615470428455</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.375020359115952</v>
+        <v>1.590975251147348</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.536666411055554</v>
+        <v>1.510710313485575</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.383136843438755</v>
+        <v>1.575012419315572</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.510302785820695</v>
+        <v>1.303439148924457</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.519974626518871</v>
+        <v>1.587626500710718</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.688642205562989</v>
+        <v>1.498709540646176</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.728634349934287</v>
+        <v>1.452451629271953</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>1.488406157338422</v>
+        <v>1.481408440080647</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>1.05917671028692</v>
+        <v>1.403028623917989</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.548126890637372</v>
+        <v>1.265456561206662</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.455896273033928</v>
+        <v>1.55391032118775</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.325492034891785</v>
+        <v>1.267846943371115</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>1.665926259220488</v>
+        <v>1.533658692738509</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.386056869724804</v>
+        <v>1.687946909559435</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.363581131057432</v>
+        <v>1.558231012615207</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.395692320076137</v>
+        <v>1.466595013673154</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.666079921986597</v>
+        <v>1.706709602419362</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.491686983438</v>
+        <v>1.481440026506578</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>1.637859506890145</v>
+        <v>1.353094215402585</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.401785907764891</v>
+        <v>1.656798525309953</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.567698916316664</v>
+        <v>1.490988921037344</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.400803451866243</v>
+        <v>1.437473593968517</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.549989087142148</v>
+        <v>1.503873808397464</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.453091113454646</v>
+        <v>1.650509214098508</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.226329287312875</v>
+        <v>1.466399114216307</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.832723395971946</v>
+        <v>1.407506862715436</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.694514098877201</v>
+        <v>1.451221875675387</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.463101080997633</v>
+        <v>1.215706084057385</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.526828697428244</v>
+        <v>1.239531137637124</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.483230898650664</v>
+        <v>1.230059081282007</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.443262718050882</v>
+        <v>1.598310817160117</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>1.400228356337001</v>
+        <v>1.325134952757786</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.587509590986989</v>
+        <v>1.63766761865734</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.628808861346818</v>
+        <v>1.302984749908302</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.465935465411125</v>
+        <v>1.635995301379475</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>1</v>
       </c>
       <c r="F118">
-        <v>1.864049272054692</v>
+        <v>1.366183891305102</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.489640355485371</v>
+        <v>1.801474041393945</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.464216671361743</v>
+        <v>1.299408583643208</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.527745515885247</v>
+        <v>1.536396736243856</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122">
-        <v>1.492959231013484</v>
+        <v>1.341225660679638</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.664195914743579</v>
+        <v>1.364731639578572</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>1.499044982928371</v>
+        <v>1.607445995823029</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>1.601754573871235</v>
+        <v>1.428273390620047</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126">
-        <v>1.5680447994284</v>
+        <v>1.68595971609652</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.194168643294531</v>
+        <v>1.587103424142486</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128">
-        <v>1.082911438965688</v>
+        <v>1.67729921744428</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.535576893586662</v>
+        <v>1.554954952820758</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3763,10 +3763,10 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130">
-        <v>1.315353638601974</v>
+        <v>1.662187213709041</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.506689047457859</v>
+        <v>1.609290246743638</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.354138299267032</v>
+        <v>1.57469869251885</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.397672528086942</v>
+        <v>1.49505931379095</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.534420564006362</v>
+        <v>1.354663019471236</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3863,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>1.440895642451906</v>
+        <v>1.60438905790243</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.3242139487969</v>
+        <v>1.637769513271439</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.58059370523362</v>
+        <v>1.410674783526816</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.70438706038764</v>
+        <v>1.656235862799398</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.107584541305793</v>
+        <v>1.74183098535618</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.579424784567368</v>
+        <v>1.563396695147205</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.55349202418663</v>
+        <v>1.472239279975611</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.559524242187297</v>
+        <v>1.82808275295091</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.340785444380151</v>
+        <v>1.465393651469945</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.523189772581611</v>
+        <v>1.599049299524741</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.387003888875193</v>
+        <v>1.298851928230935</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>1.388824895206178</v>
+        <v>1.46384449319598</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.513374041010969</v>
+        <v>1.536111157963234</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>1.30127591329259</v>
+        <v>1.377019188398889</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.395801918207455</v>
+        <v>1.423642554569946</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.421384296819168</v>
+        <v>1.303158910032873</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.586572068133045</v>
+        <v>1.531004732159716</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.354972882704762</v>
+        <v>1.540278974095191</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.368039005507272</v>
+        <v>1.300404818248095</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.320645076523968</v>
+        <v>1.588316561757278</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.440233184416637</v>
+        <v>1.481008561019939</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4283,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156">
-        <v>1.706064359095078</v>
+        <v>1.539755571626367</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4303,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>1.387648881707793</v>
+        <v>1.499435849027162</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.691629929743521</v>
+        <v>1.44808810690975</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.318476379326348</v>
+        <v>1.431752290665532</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>1</v>
       </c>
       <c r="F160">
-        <v>1.699673786330322</v>
+        <v>1.633833310859473</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.706133750644448</v>
+        <v>1.416206007314266</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.501865926904955</v>
+        <v>1.470513032050703</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.525575818852654</v>
+        <v>1.44269136420008</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4443,10 +4443,10 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164">
-        <v>1.671177132671096</v>
+        <v>1.576463965401911</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165">
-        <v>1.442725929813381</v>
+        <v>1.439742055090861</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.627828120869716</v>
+        <v>1.495555013691785</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.389440694594352</v>
+        <v>1.500338687138763</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>1</v>
       </c>
       <c r="F168">
-        <v>1.564386502925474</v>
+        <v>1.241455923671345</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.350719881775453</v>
+        <v>1.70699842769478</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.624332198329176</v>
+        <v>1.293796646849041</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.481136887484055</v>
+        <v>1.445513409462491</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4603,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>1.421403984411798</v>
+        <v>1.759823721895379</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>1.358464427006554</v>
+        <v>1.62221960752326</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.24881422443703</v>
+        <v>1.224306723109646</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.394903347755987</v>
+        <v>1.298288671477232</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.405922814768483</v>
+        <v>1.434602117433998</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.218372673996463</v>
+        <v>1.430893534399537</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.289443069791977</v>
+        <v>1.689052702903065</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.491801437079848</v>
+        <v>1.54080842548582</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.352268665169287</v>
+        <v>1.29858546886989</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.447205738535444</v>
+        <v>1.360332324110033</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182">
-        <v>1.490886403625094</v>
+        <v>1.465058639413801</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183">
-        <v>1.448071698310609</v>
+        <v>1.589073441120917</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.299789524816483</v>
+        <v>1.671625311717422</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.679911110599023</v>
+        <v>1.589318944034061</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.458679643317789</v>
+        <v>1.326401881475752</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.497973656777895</v>
+        <v>1.579360881048008</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.510952037233309</v>
+        <v>1.455049274094533</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.626608912260633</v>
+        <v>1.497300755990357</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.407949869813596</v>
+        <v>1.257933121066639</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.665764326282088</v>
+        <v>1.662027493093131</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.402760279256475</v>
+        <v>1.18425700944171</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.466196771049711</v>
+        <v>1.323153547779973</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.432847409765473</v>
+        <v>1.298656773974857</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195">
-        <v>1.345565196671821</v>
+        <v>1.701039439059541</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.272769363351846</v>
+        <v>1.572418918108331</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>1.047596792148066</v>
+        <v>1.294087372534886</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.426894067492448</v>
+        <v>1.531503675560561</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.334822148938645</v>
+        <v>1.212834023956262</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.72824330894679</v>
+        <v>1.413455227947279</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.548828151001774</v>
+        <v>1.722995885084965</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.734467050608365</v>
+        <v>1.439664247576062</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.647866096833948</v>
+        <v>1.388558524095484</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.532934838730567</v>
+        <v>1.454650204236556</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.449442003699843</v>
+        <v>1.385682196387536</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.382184524496389</v>
+        <v>1.627108539941765</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.400478075866028</v>
+        <v>1.509679114714713</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.525908151210795</v>
+        <v>1.596546507327939</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.665271159130791</v>
+        <v>1.222102517372203</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.475262864424884</v>
+        <v>1.504639208150685</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.388131539240371</v>
+        <v>1.755203098334502</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.333894819522828</v>
+        <v>1.608236444727843</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F213">
-        <v>1.407123109779552</v>
+        <v>1.514301788690414</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.412950401882373</v>
+        <v>1.760161395563984</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.750129273845731</v>
+        <v>1.854148527027395</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.320711734381691</v>
+        <v>1.499358215968436</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217">
-        <v>1.690724728016528</v>
+        <v>1.261425329753615</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.429080222413676</v>
+        <v>1.690909663617645</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.409038550911758</v>
+        <v>1.555801459625095</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.399285307037632</v>
+        <v>1.707249436601694</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.435973584307798</v>
+        <v>1.467169205463342</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.694417760689844</v>
+        <v>1.286342721937246</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.505827524499374</v>
+        <v>1.721436908193639</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>1.345219885510564</v>
+        <v>1.499493637040188</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.574877975097709</v>
+        <v>1.535414244041683</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.348881638837344</v>
+        <v>1.541660207555322</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.629170958546986</v>
+        <v>1.397741698461509</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.433887742953604</v>
+        <v>1.496909039178655</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.654378298308266</v>
+        <v>1.380021895023559</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.494081618395647</v>
+        <v>1.726010439659297</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.225722220915157</v>
+        <v>1.419013056942539</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.529719266865302</v>
+        <v>1.178717521913994</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233">
-        <v>1.192942185918005</v>
+        <v>1.806862244811613</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.257717807872508</v>
+        <v>1.329732064538502</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5863,10 +5863,10 @@
         <v>3</v>
       </c>
       <c r="E235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F235">
-        <v>1.488393656777191</v>
+        <v>1.573422626457</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.16015632885713</v>
+        <v>1.35524754288426</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5903,10 +5903,10 @@
         <v>3</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F237">
-        <v>1.487232849889417</v>
+        <v>1.404698402531141</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>1</v>
       </c>
       <c r="F238">
-        <v>1.388181130565433</v>
+        <v>1.676123714782163</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.384672342515397</v>
+        <v>1.31191014021816</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.531792652342202</v>
+        <v>1.729963353351183</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.553617226757946</v>
+        <v>1.407992043252637</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.40599084792504</v>
+        <v>1.249215879628962</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F243">
-        <v>1.513692140819348</v>
+        <v>1.433161093802568</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.452120559192423</v>
+        <v>1.606394711336378</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F245">
-        <v>1.592955681388889</v>
+        <v>1.478160615642255</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.359325846516911</v>
+        <v>1.62746210883155</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6103,10 +6103,10 @@
         <v>3</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F247">
-        <v>1.714463205116349</v>
+        <v>1.237109458987334</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.534323172003805</v>
+        <v>1.44926972543709</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F249">
-        <v>1.552171763738708</v>
+        <v>1.671523399615808</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.592082295850499</v>
+        <v>1.298964298479138</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>1.506574694671701</v>
+        <v>1.250718887500006</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>1.523783026701602</v>
+        <v>1.382933382209801</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.637179923694324</v>
+        <v>1.32359972824506</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.443041550779224</v>
+        <v>1.462793830542597</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.241757554495594</v>
+        <v>1.731671201136032</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.878497549049812</v>
+        <v>1.356962527553355</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.853105753568316</v>
+        <v>1.544475260013448</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/05_localizer.xlsx
+++ b/sequences/05_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>dog</t>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
   </si>
   <si>
     <t>face/face034.jpg</t>
   </si>
   <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
     <t>face/face033.jpg</t>
   </si>
   <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
   </si>
   <si>
     <t>flower/flower045.jpg</t>
   </si>
   <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
     <t>flower/flower034.jpg</t>
   </si>
   <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
     <t>face/face032.jpg</t>
   </si>
   <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
   </si>
   <si>
     <t>dog/dog033.jpg</t>
   </si>
   <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
+    <t>dog/dog032.jpg</t>
   </si>
   <si>
     <t>dog/dog045.jpg</t>
   </si>
   <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
   </si>
   <si>
     <t>dog/dog058.jpg</t>
   </si>
   <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
   </si>
   <si>
     <t>house/house049.jpg</t>
   </si>
   <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
     <t>house/house058.jpg</t>
   </si>
   <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
   </si>
   <si>
     <t>house/house062.jpg</t>
   </si>
   <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
     <t>flower/flower051.jpg</t>
   </si>
   <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
+    <t>house/house050.jpg</t>
   </si>
   <si>
     <t>dog/dog048.jpg</t>
   </si>
   <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
   </si>
   <si>
     <t>face/face075.jpg</t>
   </si>
   <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
   </si>
   <si>
     <t>house/house075.jpg</t>
   </si>
   <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
   </si>
   <si>
     <t>flower/flower072.jpg</t>
   </si>
   <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
+    <t>dog/dog069.jpg</t>
   </si>
   <si>
     <t>face/face067.jpg</t>
   </si>
   <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
   </si>
   <si>
     <t>dog/dog075.jpg</t>
   </si>
   <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
     <t>dog/dog074.jpg</t>
   </si>
   <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
   </si>
   <si>
     <t>flower/flower090.jpg</t>
   </si>
   <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
     <t>house/house082.jpg</t>
   </si>
   <si>
-    <t>flower/flower092.jpg</t>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
   </si>
   <si>
     <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.671857455544411</v>
+        <v>1.833435131393907</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1.32605101012454</v>
+        <v>1.269200750236678</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.536444913345895</v>
+        <v>1.334120354366563</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.373411481299595</v>
+        <v>1.573671706224385</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.518726393727051</v>
+        <v>1.74466837504394</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1.548045958899588</v>
+        <v>1.446786660875778</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.562561251251558</v>
+        <v>1.467977392618216</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.581998217960975</v>
+        <v>1.653047325888907</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.802480554763921</v>
+        <v>1.439494514894714</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.519366331160353</v>
+        <v>1.374378514420919</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.780043320558096</v>
+        <v>1.528884371453062</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.475945946022424</v>
+        <v>1.362577749487597</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.459349747337331</v>
+        <v>1.632842784259449</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.710555977727072</v>
+        <v>1.410992992802176</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.375296949308653</v>
+        <v>1.221051823807063</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.625194741948702</v>
+        <v>1.506161078715444</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.329757653283131</v>
+        <v>1.456554337638927</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.457477866183728</v>
+        <v>1.413667458554771</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.337518178814457</v>
+        <v>1.482828926923072</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.69288210073176</v>
+        <v>1.282296628215982</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.344104297668565</v>
+        <v>1.696063140551862</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.542026648534441</v>
+        <v>1.393856290843953</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.53504659294463</v>
+        <v>1.333723739507918</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.406729665908295</v>
+        <v>1.582068218932673</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>1.704411425745305</v>
+        <v>1.679189945600303</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.450968602479101</v>
+        <v>1.221481880801246</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.528506702208694</v>
+        <v>1.51081712293046</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.562034675618677</v>
+        <v>1.529456691662665</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1.545667249694278</v>
+        <v>1.508664824811974</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.636216407531061</v>
+        <v>1.372982365903646</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.408668150699766</v>
+        <v>1.787906677709814</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.582830846842668</v>
+        <v>1.074841410093286</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1.594882861799868</v>
+        <v>1.17543806238391</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1.622869581125808</v>
+        <v>1.605839716754285</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>1.542106393913529</v>
+        <v>1.723963817464572</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.735252051531948</v>
+        <v>1.618514596001739</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.693466368960563</v>
+        <v>1.417855266709059</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>1.469240137176684</v>
+        <v>1.455582342079773</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.190915523575083</v>
+        <v>1.285060081585868</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.557340920833088</v>
+        <v>1.616782751131674</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.418571487663556</v>
+        <v>1.433852174924308</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>1.891726580250084</v>
+        <v>1.562529709825356</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.302603489807526</v>
+        <v>1.487847154447357</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.692000371468807</v>
+        <v>1.507468750743803</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>1.556268775157803</v>
+        <v>1.459558435595502</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.510787449824405</v>
+        <v>1.412931810120916</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.865658279209885</v>
+        <v>1.265187566168839</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.492118921267884</v>
+        <v>1.558155063702858</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.667686286733085</v>
+        <v>1.903010955578765</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>1.512056410495829</v>
+        <v>1.68840558342904</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>1.603326284104218</v>
+        <v>1.454640346370341</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.560669537973052</v>
+        <v>1.650823672987795</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.258528488858177</v>
+        <v>1.54145706350062</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.547657307314496</v>
+        <v>1.493767826678954</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.478886760415855</v>
+        <v>1.444530965807695</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.511596201949828</v>
+        <v>1.455392775676544</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.459923536207108</v>
+        <v>1.419049940425388</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.525258832902589</v>
+        <v>1.605388108188013</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.451373864215144</v>
+        <v>1.580392835065127</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.552881016681663</v>
+        <v>1.638391394925081</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.606724156256848</v>
+        <v>1.288079995878309</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>1.491723428491588</v>
+        <v>1.326854539426565</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.570104158519005</v>
+        <v>1.474109017600014</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.618069522921193</v>
+        <v>1.62821610123446</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>1.584803968358556</v>
+        <v>1.485955144152173</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.444783771882489</v>
+        <v>1.506087767198631</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>1.667209043588536</v>
+        <v>1.439805829685749</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.622422548913936</v>
+        <v>1.445602667763985</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.662225419195776</v>
+        <v>1.333202955681969</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.402403167688269</v>
+        <v>1.827389881548363</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.348483934803914</v>
+        <v>1.335403034237871</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.743161009640177</v>
+        <v>1.432764829882666</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.58720492752887</v>
+        <v>1.579639721291753</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.361606639201785</v>
+        <v>1.529273989765537</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.314733238452857</v>
+        <v>1.438034758699373</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="F77">
-        <v>1.482470177359256</v>
+        <v>1.45903203778494</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>1.356083628042087</v>
+        <v>1.440657624722217</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>1.563234009305301</v>
+        <v>1.463507291061623</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>1.706832208491371</v>
+        <v>1.572745329680695</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.658392971547876</v>
+        <v>1.59285617370481</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.40615470428455</v>
+        <v>1.05899809825885</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.590975251147348</v>
+        <v>1.312718410147089</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.510710313485575</v>
+        <v>1.453614939178333</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.575012419315572</v>
+        <v>1.364154754137709</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.303439148924457</v>
+        <v>1.638394626422135</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2903,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>1.587626500710718</v>
+        <v>1.514630965538089</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>1.498709540646176</v>
+        <v>1.554644591857669</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2943,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>1.452451629271953</v>
+        <v>1.748396780766955</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.481408440080647</v>
+        <v>1.348098164135582</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.403028623917989</v>
+        <v>1.537382904072891</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.265456561206662</v>
+        <v>1.622034673147146</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.55391032118775</v>
+        <v>1.664403200885918</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.267846943371115</v>
+        <v>1.446342563853214</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.533658692738509</v>
+        <v>1.433444093579917</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.687946909559435</v>
+        <v>1.200148836649293</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.558231012615207</v>
+        <v>1.415028414127661</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.466595013673154</v>
+        <v>1.326925631517867</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.706709602419362</v>
+        <v>1.205406952690272</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.481440026506578</v>
+        <v>1.510713409060182</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.353094215402585</v>
+        <v>1.540847904584277</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.656798525309953</v>
+        <v>1.437645392876712</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.490988921037344</v>
+        <v>1.372057488102926</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.437473593968517</v>
+        <v>1.553077442486533</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.503873808397464</v>
+        <v>1.661017617907709</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.650509214098508</v>
+        <v>1.570788059262078</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.466399114216307</v>
+        <v>1.697341762230662</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.407506862715436</v>
+        <v>1.712632816566027</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.451221875675387</v>
+        <v>1.381462209021136</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.215706084057385</v>
+        <v>1.466481034272886</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.239531137637124</v>
+        <v>1.513697559632827</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112">
-        <v>1.230059081282007</v>
+        <v>1.432793541497927</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.598310817160117</v>
+        <v>1.439284358889256</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.325134952757786</v>
+        <v>1.690626581036482</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.63766761865734</v>
+        <v>1.522503437029904</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.302984749908302</v>
+        <v>1.508388309513555</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.635995301379475</v>
+        <v>1.196812367422149</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>1.366183891305102</v>
+        <v>1.445079452384664</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.801474041393945</v>
+        <v>1.494096893642622</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.299408583643208</v>
+        <v>1.590049559226039</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.536396736243856</v>
+        <v>1.625489872252462</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>1.341225660679638</v>
+        <v>1.728155844483603</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.364731639578572</v>
+        <v>1.698303529619528</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.607445995823029</v>
+        <v>1.373271652118137</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.428273390620047</v>
+        <v>1.546912388688167</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>1.68595971609652</v>
+        <v>1.625802498995204</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127">
-        <v>1.587103424142486</v>
+        <v>1.570222404672379</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>1.67729921744428</v>
+        <v>1.415876079700681</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.554954952820758</v>
+        <v>1.394851869111625</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3763,10 +3763,10 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>1.662187213709041</v>
+        <v>1.291230479122841</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.609290246743638</v>
+        <v>1.509872857992591</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.57469869251885</v>
+        <v>1.550049246463823</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.49505931379095</v>
+        <v>1.704990695478963</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.354663019471236</v>
+        <v>1.708724042292133</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.60438905790243</v>
+        <v>1.829157171696102</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.637769513271439</v>
+        <v>1.479411000479189</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.410674783526816</v>
+        <v>1.547356460235681</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.656235862799398</v>
+        <v>1.378844160439692</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.74183098535618</v>
+        <v>1.703722217376853</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.563396695147205</v>
+        <v>1.692328501986186</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.472239279975611</v>
+        <v>1.313899420598815</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.82808275295091</v>
+        <v>1.554415543822992</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.465393651469945</v>
+        <v>1.416695690185929</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.599049299524741</v>
+        <v>1.526507855584459</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.298851928230935</v>
+        <v>1.695389720635683</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.46384449319598</v>
+        <v>1.591980815504449</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.536111157963234</v>
+        <v>1.413493930796335</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148">
-        <v>1.377019188398889</v>
+        <v>1.633708947057591</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.423642554569946</v>
+        <v>1.848652017322135</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.303158910032873</v>
+        <v>1.61623052850096</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.531004732159716</v>
+        <v>1.576967234506303</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152">
-        <v>1.540278974095191</v>
+        <v>1.560142732048537</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.300404818248095</v>
+        <v>1.69166540329152</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.588316561757278</v>
+        <v>1.580211772669703</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.481008561019939</v>
+        <v>1.666981286364684</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4283,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>1.539755571626367</v>
+        <v>1.684130641787129</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.499435849027162</v>
+        <v>1.467614479054313</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.44808810690975</v>
+        <v>1.34178668154319</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.431752290665532</v>
+        <v>1.453286789540345</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>1.633833310859473</v>
+        <v>1.530066047415659</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.416206007314266</v>
+        <v>1.255384936404846</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.470513032050703</v>
+        <v>1.750756929393449</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4423,10 +4423,10 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163">
-        <v>1.44269136420008</v>
+        <v>1.465594214089492</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4443,10 +4443,10 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>1.576463965401911</v>
+        <v>1.595596931370878</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>1.439742055090861</v>
+        <v>1.398706274343656</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.495555013691785</v>
+        <v>1.384640682242278</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.500338687138763</v>
+        <v>1.373751753330373</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>1.241455923671345</v>
+        <v>1.571568685752187</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169">
-        <v>1.70699842769478</v>
+        <v>1.545066629638018</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>1.293796646849041</v>
+        <v>1.452613363783746</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4583,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171">
-        <v>1.445513409462491</v>
+        <v>1.42230637408128</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.759823721895379</v>
+        <v>1.528888591218591</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.62221960752326</v>
+        <v>1.219682751951609</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.224306723109646</v>
+        <v>1.552975730775945</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.298288671477232</v>
+        <v>1.682632500953843</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.434602117433998</v>
+        <v>1.630582479170021</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.430893534399537</v>
+        <v>1.52795068606965</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.689052702903065</v>
+        <v>1.120971483167192</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.54080842548582</v>
+        <v>1.537423796427261</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180">
-        <v>1.29858546886989</v>
+        <v>1.402911935875599</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.360332324110033</v>
+        <v>1.551976326268512</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>1.465058639413801</v>
+        <v>1.572068187804144</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>1.589073441120917</v>
+        <v>1.764946576145321</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.671625311717422</v>
+        <v>1.118726597375969</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.589318944034061</v>
+        <v>1.395049357761963</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.326401881475752</v>
+        <v>1.401943783254963</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.579360881048008</v>
+        <v>1.697850843430046</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.455049274094533</v>
+        <v>1.502290312697501</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.497300755990357</v>
+        <v>1.437099783884001</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.257933121066639</v>
+        <v>1.370756430815991</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.662027493093131</v>
+        <v>1.337691473197909</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.18425700944171</v>
+        <v>1.6318554208456</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193">
-        <v>1.323153547779973</v>
+        <v>1.79380877916153</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.298656773974857</v>
+        <v>1.717659200796564</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>1.701039439059541</v>
+        <v>1.693132028030061</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.572418918108331</v>
+        <v>1.593436386489485</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197">
-        <v>1.294087372534886</v>
+        <v>1.572344117840563</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.531503675560561</v>
+        <v>1.579232987588401</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.212834023956262</v>
+        <v>1.292605927660291</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.413455227947279</v>
+        <v>1.813433013569894</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.722995885084965</v>
+        <v>1.340648316776359</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.439664247576062</v>
+        <v>1.423300834174049</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.388558524095484</v>
+        <v>1.570016236080902</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.454650204236556</v>
+        <v>1.550118185632369</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.385682196387536</v>
+        <v>1.132938963198081</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206">
-        <v>1.627108539941765</v>
+        <v>1.366392935174472</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.509679114714713</v>
+        <v>1.442287101589519</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.596546507327939</v>
+        <v>1.41451714563027</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.222102517372203</v>
+        <v>1.487964795645</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.504639208150685</v>
+        <v>1.56177540458907</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.755203098334502</v>
+        <v>1.476371719148427</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.608236444727843</v>
+        <v>1.5276770822092</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.514301788690414</v>
+        <v>1.390836446907767</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.760161395563984</v>
+        <v>1.221141517965375</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.854148527027395</v>
+        <v>1.47306685299309</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.499358215968436</v>
+        <v>1.468658233269732</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>1</v>
       </c>
       <c r="F217">
-        <v>1.261425329753615</v>
+        <v>1.405450301503986</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.690909663617645</v>
+        <v>1.714158165409075</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219">
-        <v>1.555801459625095</v>
+        <v>1.462000816331775</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.707249436601694</v>
+        <v>1.45126242312792</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.467169205463342</v>
+        <v>1.4042409753273</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5603,10 +5603,10 @@
         <v>3</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F222">
-        <v>1.286342721937246</v>
+        <v>1.438470092905218</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.721436908193639</v>
+        <v>1.436034924469659</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.499493637040188</v>
+        <v>1.465613425769826</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.535414244041683</v>
+        <v>1.753965793160157</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.541660207555322</v>
+        <v>1.221384780048399</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.397741698461509</v>
+        <v>1.504625684280356</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.496909039178655</v>
+        <v>1.470999990286377</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.380021895023559</v>
+        <v>1.42860382919633</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F230">
-        <v>1.726010439659297</v>
+        <v>1.424302353192068</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.419013056942539</v>
+        <v>1.21172437975062</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.178717521913994</v>
+        <v>1.450167637396488</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>1.806862244811613</v>
+        <v>1.622456019849345</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.329732064538502</v>
+        <v>1.372761954727392</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.573422626457</v>
+        <v>1.724730557873019</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.35524754288426</v>
+        <v>1.511217428818644</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5903,10 +5903,10 @@
         <v>3</v>
       </c>
       <c r="E237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F237">
-        <v>1.404698402531141</v>
+        <v>1.428327559687133</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5923,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F238">
-        <v>1.676123714782163</v>
+        <v>1.408300472025357</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.31191014021816</v>
+        <v>1.750541916899535</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.729963353351183</v>
+        <v>1.680530229858345</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.407992043252637</v>
+        <v>1.177336641813175</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.249215879628962</v>
+        <v>1.754593985106056</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F243">
-        <v>1.433161093802568</v>
+        <v>1.523179431481013</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.606394711336378</v>
+        <v>1.46026005699678</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>1.478160615642255</v>
+        <v>1.459017947262164</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.62746210883155</v>
+        <v>1.41525100035146</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>1</v>
       </c>
       <c r="F247">
-        <v>1.237109458987334</v>
+        <v>1.487585861612466</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F248">
-        <v>1.44926972543709</v>
+        <v>1.481583434141828</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.671523399615808</v>
+        <v>1.370280291914526</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.298964298479138</v>
+        <v>1.448763931041764</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.250718887500006</v>
+        <v>1.389763081134262</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.382933382209801</v>
+        <v>1.63815683580548</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.32359972824506</v>
+        <v>1.568384683626592</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.462793830542597</v>
+        <v>1.451743790328679</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.731671201136032</v>
+        <v>1.759005261485916</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.356962527553355</v>
+        <v>1.770083660588752</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.544475260013448</v>
+        <v>1.563115449750967</v>
       </c>
     </row>
   </sheetData>
